--- a/ms21_dataset_split.xlsx
+++ b/ms21_dataset_split.xlsx
@@ -306,117 +306,114 @@
     <t>Motor Tapes - Shore'</t>
   </si>
   <si>
-    <t>Asam Classical Soloists - J.S.Bach's Jesu bleibet meine Freude</t>
+    <t>Atlantis Bound - It Was My Fault For Waiting'</t>
   </si>
   <si>
     <t>Mu - Too Bright'</t>
   </si>
   <si>
-    <t>Atlantis Bound - It Was My Fault For Waiting'</t>
+    <t>Avalon - All I Know'</t>
   </si>
   <si>
     <t>Nerve 9 - Living Lie'</t>
   </si>
   <si>
-    <t>Avalon - All I Know'</t>
+    <t>Babe Grand - Aiguille Rouge'</t>
   </si>
   <si>
     <t>Nerve 9 - Pray For The Rain'</t>
   </si>
   <si>
-    <t>Babe Grand - Aiguille Rouge'</t>
+    <t>Babe Grand - King Of The Weekend'</t>
   </si>
   <si>
     <t>Punkdisco - Oral Hygiene'</t>
   </si>
   <si>
-    <t>Babe Grand - King Of The Weekend'</t>
+    <t>Balkun Brothers - So Hi. So Lo'</t>
   </si>
   <si>
     <t>Raft Monk - Tiring'</t>
   </si>
   <si>
-    <t>Balkun Brothers - So Hi. So Lo'</t>
+    <t>Banda Magda - Mouche'</t>
   </si>
   <si>
     <t>Sambasevam Shanmugam - Kaathaadi'</t>
   </si>
   <si>
-    <t>Banda Magda - Mouche'</t>
+    <t>Barnstar! - Believer'</t>
   </si>
   <si>
     <t>Side Effects Project - Sing With Me'</t>
   </si>
   <si>
-    <t>Barnstar! - Believer'</t>
+    <t>Barnstar! - You Don'\''t Know'</t>
   </si>
   <si>
     <t>Signe Jakobsen - What Have You Done To Me'</t>
   </si>
   <si>
-    <t>Barnstar! - You Don'\''t Know'</t>
+    <t>BaumXmedia - Dream State (feat. Flora Lin)'</t>
   </si>
   <si>
     <t>Speak Softly - Broken Man'</t>
   </si>
   <si>
-    <t>BaumXmedia - Dream State (feat. Flora Lin)'</t>
+    <t>BaumXmedia - Koishii (feat. N.I.A.)'</t>
   </si>
   <si>
     <t>The Doppler Shift - Atrophy'</t>
   </si>
   <si>
-    <t>BaumXmedia - Koishii (feat. N.I.A.)'</t>
+    <t>Benjamin John - Better Way'</t>
   </si>
   <si>
     <t>The Mountaineering Club - Mallory'</t>
   </si>
   <si>
-    <t>Benjamin John - Better Way'</t>
+    <t>Big Head Todd &amp; The Monsters - Hey Delilah'</t>
   </si>
   <si>
     <t>The Sunshine Garcia Band - For I Am The Moon'</t>
   </si>
   <si>
-    <t>Big Head Todd &amp; The Monsters - Hey Delilah'</t>
+    <t>Big Mean Sound Machine - Contraband'</t>
   </si>
   <si>
     <t>Timboz - Pony'</t>
   </si>
   <si>
-    <t>Big Mean Sound Machine - Contraband'</t>
+    <t>Big Stone Culture - Fragile Thoughts'</t>
   </si>
   <si>
     <t>Tom McKenzie - Directions'</t>
   </si>
   <si>
-    <t>Big Stone Culture - Fragile Thoughts'</t>
+    <t>Bill Chudziak - Children Of No-one'</t>
   </si>
   <si>
     <t>We Fell From The Sky - Not You'</t>
   </si>
   <si>
-    <t>Bill Chudziak - Children Of No-one'</t>
+    <t>Black Bloc - If You Want Success'</t>
   </si>
   <si>
     <t>W.I.N.D. - Funky To The Bone'</t>
   </si>
   <si>
-    <t>Black Bloc - If You Want Success'</t>
+    <t>Blue Lit Moon - Dad's Glad</t>
   </si>
   <si>
     <t>W.I.N.D. - Temporary Happiness'</t>
   </si>
   <si>
-    <t>Blue Lit Moon - Dad's Glad</t>
+    <t>Blues Bastards - Lights Out!'</t>
   </si>
   <si>
     <t>Zeno - Signs'</t>
   </si>
   <si>
-    <t>Blues Bastards - Lights Out!'</t>
-  </si>
-  <si>
     <t>Blues Bastards - Sugar'</t>
   </si>
   <si>
@@ -477,9 +474,6 @@
     <t>Cnoc An Tursa - Bannockburn'</t>
   </si>
   <si>
-    <t>Colebrook Road - Bright Angel'</t>
-  </si>
-  <si>
     <t>Colton Benjamin - 21 Grams'</t>
   </si>
   <si>
@@ -828,15 +822,12 @@
     <t>Jet B - To The Wolves'</t>
   </si>
   <si>
-    <t>Joanna Ward - Away'</t>
-  </si>
-  <si>
-    <t>John A Ardelli - Asiza'</t>
-  </si>
-  <si>
     <t>John McKay - Daisy Daisy'</t>
   </si>
   <si>
+    <t>Johnny Swain - Freedom (Lay Down My Live For You)'</t>
+  </si>
+  <si>
     <t>Jokers - Sea Of Leaves'</t>
   </si>
   <si>
@@ -900,7 +891,7 @@
     <t>Keystone Angel - Afterglow'</t>
   </si>
   <si>
-    <t>King's College London Baroque Orchestra - Telemann's La Lyra Overture</t>
+    <t>Killa-L - Window'</t>
   </si>
   <si>
     <t>Kung Fu - Daddy D'</t>
@@ -924,9 +915,6 @@
     <t>Leftover Salmon - River's Risin</t>
   </si>
   <si>
-    <t>Leslie Mendelson - The Hardest Part'</t>
-  </si>
-  <si>
     <t>Lindy Hip Big Band - Makin' Whoopee</t>
   </si>
   <si>
@@ -963,6 +951,12 @@
     <t>Man About A Dog - Maggie May'</t>
   </si>
   <si>
+    <t>Marc Ellason - Treadmills'</t>
+  </si>
+  <si>
+    <t>Marc Ellason - Upside Down'</t>
+  </si>
+  <si>
     <t>Marcus Boeltz - Shut Up And Play'</t>
   </si>
   <si>
@@ -1434,6 +1428,9 @@
     <t>Turn Back To Spring - Another Day Calling'</t>
   </si>
   <si>
+    <t>Tytillidie x Xollllinnnn - Bankroll'</t>
+  </si>
+  <si>
     <t>Uncle Dad - Who I Am'</t>
   </si>
   <si>
@@ -1486,6 +1483,9 @@
   </si>
   <si>
     <t>West End Blend - Must Be Voodoo'</t>
+  </si>
+  <si>
+    <t>Whitten And. Williams - How To Make A Mirror'</t>
   </si>
   <si>
     <t>Wide Waters - Into The Forest'</t>
@@ -2151,7 +2151,7 @@
       <c r="A33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       <c r="A49" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="5" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="A50" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="3" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2310,12 +2310,12 @@
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="3" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2380,12 +2380,12 @@
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="3" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="5" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="3" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2475,7 +2475,7 @@
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="5" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="3" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2540,22 +2540,22 @@
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="3" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="3" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="5" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="3" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="5" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2635,7 +2635,7 @@
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="3" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2910,7 +2910,7 @@
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="5" t="s">
         <v>255</v>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="C176" s="5" t="s">
+      <c r="C176" s="3" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3120,17 +3120,17 @@
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="C216" s="5" t="s">
+      <c r="C216" s="3" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="C217" s="3" t="s">
+      <c r="C217" s="5" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="C218" s="3" t="s">
+      <c r="C218" s="5" t="s">
         <v>299</v>
       </c>
     </row>
@@ -3140,7 +3140,7 @@
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="C220" s="5" t="s">
+      <c r="C220" s="3" t="s">
         <v>301</v>
       </c>
     </row>
@@ -3150,7 +3150,7 @@
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="C222" s="5" t="s">
+      <c r="C222" s="3" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3160,12 +3160,12 @@
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="C224" s="3" t="s">
+      <c r="C224" s="5" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="C225" s="3" t="s">
+      <c r="C225" s="5" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3180,12 +3180,12 @@
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="C228" s="5" t="s">
+      <c r="C228" s="3" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="C229" s="5" t="s">
+      <c r="C229" s="3" t="s">
         <v>310</v>
       </c>
     </row>
@@ -3215,7 +3215,7 @@
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="C235" s="3" t="s">
+      <c r="C235" s="5" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="C237" s="5" t="s">
+      <c r="C237" s="3" t="s">
         <v>318</v>
       </c>
     </row>
@@ -3330,7 +3330,7 @@
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="C258" s="3" t="s">
+      <c r="C258" s="5" t="s">
         <v>339</v>
       </c>
     </row>
@@ -3340,7 +3340,7 @@
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="C260" s="5" t="s">
+      <c r="C260" s="3" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="C273" s="3" t="s">
+      <c r="C273" s="5" t="s">
         <v>354</v>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="C277" s="5" t="s">
+      <c r="C277" s="3" t="s">
         <v>358</v>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="C284" s="3" t="s">
+      <c r="C284" s="5" t="s">
         <v>365</v>
       </c>
     </row>
@@ -3470,7 +3470,7 @@
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="C286" s="5" t="s">
+      <c r="C286" s="3" t="s">
         <v>367</v>
       </c>
     </row>
@@ -3500,7 +3500,7 @@
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="C292" s="3" t="s">
+      <c r="C292" s="5" t="s">
         <v>373</v>
       </c>
     </row>
@@ -3515,17 +3515,17 @@
       </c>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="C295" s="3" t="s">
+      <c r="C295" s="5" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="C296" s="5" t="s">
+      <c r="C296" s="3" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="C297" s="5" t="s">
+      <c r="C297" s="3" t="s">
         <v>378</v>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="C305" s="3" t="s">
+      <c r="C305" s="5" t="s">
         <v>386</v>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="C307" s="5" t="s">
+      <c r="C307" s="3" t="s">
         <v>388</v>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="C322" s="3" t="s">
+      <c r="C322" s="5" t="s">
         <v>403</v>
       </c>
     </row>
@@ -3660,7 +3660,7 @@
       </c>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="C324" s="5" t="s">
+      <c r="C324" s="3" t="s">
         <v>405</v>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
       </c>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="C327" s="3" t="s">
+      <c r="C327" s="5" t="s">
         <v>408</v>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="C329" s="5" t="s">
+      <c r="C329" s="3" t="s">
         <v>410</v>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       </c>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="C331" s="3" t="s">
+      <c r="C331" s="5" t="s">
         <v>412</v>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="C333" s="5" t="s">
+      <c r="C333" s="3" t="s">
         <v>414</v>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
       </c>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="C338" s="3" t="s">
+      <c r="C338" s="5" t="s">
         <v>419</v>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="C340" s="5" t="s">
+      <c r="C340" s="3" t="s">
         <v>421</v>
       </c>
     </row>
@@ -3750,7 +3750,7 @@
       </c>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="C342" s="3" t="s">
+      <c r="C342" s="5" t="s">
         <v>423</v>
       </c>
     </row>
@@ -3760,7 +3760,7 @@
       </c>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="C344" s="5" t="s">
+      <c r="C344" s="3" t="s">
         <v>425</v>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
       </c>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="C375" s="3" t="s">
+      <c r="C375" s="5" t="s">
         <v>456</v>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
       </c>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="C379" s="5" t="s">
+      <c r="C379" s="3" t="s">
         <v>460</v>
       </c>
     </row>
@@ -3970,7 +3970,7 @@
       </c>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="C386" s="3" t="s">
+      <c r="C386" s="5" t="s">
         <v>467</v>
       </c>
     </row>
@@ -3980,7 +3980,7 @@
       </c>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="C388" s="5" t="s">
+      <c r="C388" s="3" t="s">
         <v>469</v>
       </c>
     </row>

--- a/ms21_dataset_split.xlsx
+++ b/ms21_dataset_split.xlsx
@@ -27,22 +27,22 @@
     <t>train</t>
   </si>
   <si>
+    <t>AM Contra - Heart Peripheral'</t>
+  </si>
+  <si>
+    <t>Actions - One Minute Smile'</t>
+  </si>
+  <si>
+    <t>APZX - Amalgamize'</t>
+  </si>
+  <si>
     <t>Al James - Schoolboy Fascination'</t>
   </si>
   <si>
-    <t>Actions - One Minute Smile'</t>
-  </si>
-  <si>
-    <t>3D-MARCo Project - Piano Solo 1'</t>
-  </si>
-  <si>
-    <t>AM Contra - Heart Peripheral'</t>
-  </si>
-  <si>
     <t>Actions - South Of The Water'</t>
   </si>
   <si>
-    <t>3D-MARCo Project - String Quartet'</t>
+    <t>APZX - Cyber Mower'</t>
   </si>
   <si>
     <t>Angels In Amplifiers - I'm Alright</t>
@@ -51,316 +51,322 @@
     <t>Dorothea Wessel - Muddy Water'</t>
   </si>
   <si>
+    <t>APZX - Lacuna'</t>
+  </si>
+  <si>
+    <t>Arise - Run Run Run'</t>
+  </si>
+  <si>
+    <t>Fergessen - Back From The Start'</t>
+  </si>
+  <si>
+    <t>APZX - Transcention'</t>
+  </si>
+  <si>
+    <t>Ben Carrigan - Hey Carrie Anne'</t>
+  </si>
+  <si>
+    <t>Fergessen - Nos Palpitants'</t>
+  </si>
+  <si>
     <t>Actions - Devil's Words</t>
   </si>
   <si>
-    <t>Arise - Run Run Run'</t>
-  </si>
-  <si>
-    <t>Fergessen - Back From The Start'</t>
+    <t>Ben Carrigan - We'll Talk About It All Tonight</t>
+  </si>
+  <si>
+    <t>Fergessen - The Wind'</t>
   </si>
   <si>
     <t>Adam Buckley - Drag me Down'</t>
   </si>
   <si>
+    <t>Bobby Nobody - Stitch Up'</t>
+  </si>
+  <si>
+    <t>James May - All Souls Moon'</t>
+  </si>
+  <si>
+    <t>Admiral Crumple - Keeps Flowing'</t>
+  </si>
+  <si>
+    <t>Buitraker - Revo X'</t>
+  </si>
+  <si>
+    <t>James May - Don't Let Go</t>
+  </si>
+  <si>
+    <t>Ajay Nagarkoti &amp; Vibhu Dixit - Ae Mere Humsafar'</t>
+  </si>
+  <si>
+    <t>Carlitos Gonzalez - A Place For Us'</t>
+  </si>
+  <si>
+    <t>James May - Eliza Jane'</t>
+  </si>
+  <si>
+    <t>Alan Mansfield &amp; John Pritchard - Boat Ride'</t>
+  </si>
+  <si>
+    <t>Carol Dant - Do Not Stand'</t>
+  </si>
+  <si>
+    <t>James May - Hold On You'</t>
+  </si>
+  <si>
+    <t>Albert Kader - Ubiquitous'</t>
+  </si>
+  <si>
+    <t>Carol Dant - I Am The Desert'</t>
+  </si>
+  <si>
+    <t>James May - If You Say'</t>
+  </si>
+  <si>
+    <t>Albert Kader - Whiptails'</t>
+  </si>
+  <si>
+    <t>Detsky Sad - Walkie Talkie'</t>
+  </si>
+  <si>
+    <t>James May - On The Line'</t>
+  </si>
+  <si>
+    <t>Ale Lak - Nosso Mundo Deixou De Existir'</t>
+  </si>
+  <si>
+    <t>Finlay - Same Kind Of Life'</t>
+  </si>
+  <si>
+    <t>Johnny Lokke - Promises &amp; Lies'</t>
+  </si>
+  <si>
+    <t>Alejo Granados - Rumba Chonta'</t>
+  </si>
+  <si>
+    <t>Forkupines - Semantics'</t>
+  </si>
+  <si>
+    <t>Johnny Lokke - Whisper To A Scream'</t>
+  </si>
+  <si>
+    <t>All Hands Lost - Ambitions'</t>
+  </si>
+  <si>
+    <t>Forkupines - Sleep By The Fire Bloom In Water'</t>
+  </si>
+  <si>
+    <t>Leaf - Come Around'</t>
+  </si>
+  <si>
+    <t>Allen Stone - Naturally'</t>
+  </si>
+  <si>
+    <t>Forkupines - Sugar - Faith'</t>
+  </si>
+  <si>
+    <t>Leaf - Summerghost'</t>
+  </si>
+  <si>
+    <t>Amber Skye - Howlin'</t>
+  </si>
+  <si>
+    <t>Georgia Wonder - Siren'</t>
+  </si>
+  <si>
+    <t>Leaf - Wicked'</t>
+  </si>
+  <si>
+    <t>Amy Helm &amp; The Handsome Strangers - Rescue Me'</t>
+  </si>
+  <si>
+    <t>Girls Under Glass - We Feel Alright'</t>
+  </si>
+  <si>
+    <t>Pepelpovetru - Tochka'</t>
+  </si>
+  <si>
+    <t>Andres Guazzelli - Attention'</t>
+  </si>
+  <si>
+    <t>Hollow Ground - Ill Fate'</t>
+  </si>
+  <si>
+    <t>Traffic Experiment - Once More (With Feeling)'</t>
+  </si>
+  <si>
+    <t>Andres Guazzelli - Flores De Abril'</t>
+  </si>
+  <si>
+    <t>Hollow Ground - Left Blind'</t>
+  </si>
+  <si>
+    <t>Traffic Experiment - Sirens'</t>
+  </si>
+  <si>
+    <t>Andrew Cole - Dead Roses'</t>
+  </si>
+  <si>
+    <t>James Elder &amp; Mark M Thompson - The English Actor'</t>
+  </si>
+  <si>
+    <t>Triviul - Alright'</t>
+  </si>
+  <si>
+    <t>Angela Thomas Wade - Milk Cow Blues'</t>
+  </si>
+  <si>
+    <t>Juliet's Rescue - Heartbeats</t>
+  </si>
+  <si>
+    <t>Triviul - Angelsaint'</t>
+  </si>
+  <si>
+    <t>Angelo Boltini - This Town'</t>
+  </si>
+  <si>
+    <t>Little Chicago's Finest - My Own</t>
+  </si>
+  <si>
+    <t>Triviul - Better'</t>
+  </si>
+  <si>
+    <t>Anna Blanton - Rachel'</t>
+  </si>
+  <si>
+    <t>Louis Cressy Band - Good Time'</t>
+  </si>
+  <si>
+    <t>Triviul - Dorothy'</t>
+  </si>
+  <si>
+    <t>Anna Blanton - Waves'</t>
+  </si>
+  <si>
+    <t>Lyndsey Ollard - Catching Up'</t>
+  </si>
+  <si>
+    <t>Triviul - Gimme'</t>
+  </si>
+  <si>
+    <t>Araujo - The Saga Of Harrison Crabfeathers'</t>
+  </si>
+  <si>
+    <t>M.E.R.C. Music - Knockout'</t>
+  </si>
+  <si>
+    <t>Triviul - To Sam Rawfers'</t>
+  </si>
+  <si>
+    <t>Aron Jaeger - Fly High'</t>
+  </si>
+  <si>
+    <t>Moosmusic - Big Dummy Shake'</t>
+  </si>
+  <si>
+    <t>Triviul - Widow (feat. The Fiend)'</t>
+  </si>
+  <si>
+    <t>Atlantis Bound - It Was My Fault For Waiting'</t>
+  </si>
+  <si>
+    <t>Motor Tapes - Shore'</t>
+  </si>
+  <si>
+    <t>Young Griffo - Blood To Bone'</t>
+  </si>
+  <si>
+    <t>Avalon - All I Know'</t>
+  </si>
+  <si>
+    <t>Mu - Too Bright'</t>
+  </si>
+  <si>
+    <t>Young Griffo - Facade'</t>
+  </si>
+  <si>
+    <t>BMorgan&amp;FRIENDS - Nowhere'</t>
+  </si>
+  <si>
+    <t>Nerve 9 - Living Lie'</t>
+  </si>
+  <si>
+    <t>Young Griffo - Pennies'</t>
+  </si>
+  <si>
+    <t>Babe Grand - Aiguille Rouge'</t>
+  </si>
+  <si>
+    <t>Nerve 9 - Pray For The Rain'</t>
+  </si>
+  <si>
+    <t>Babe Grand - King Of The Weekend'</t>
+  </si>
+  <si>
+    <t>Punkdisco - Oral Hygiene'</t>
+  </si>
+  <si>
+    <t>Balkun Brothers - So Hi. So Lo'</t>
+  </si>
+  <si>
+    <t>Raft Monk - Tiring'</t>
+  </si>
+  <si>
+    <t>Banda Magda - Mouche'</t>
+  </si>
+  <si>
+    <t>Sambasevam Shanmugam - Kaathaadi'</t>
+  </si>
+  <si>
     <t>Banned From The Zoo - Black Out Betty'</t>
   </si>
   <si>
-    <t>Fergessen - Nos Palpitants'</t>
-  </si>
-  <si>
-    <t>Admiral Crumple - Keeps Flowing'</t>
+    <t>Saturn Syndicate - Catch The Wave'</t>
   </si>
   <si>
     <t>Banned From The Zoo - Encore'</t>
   </si>
   <si>
-    <t>Fergessen - The Wind'</t>
-  </si>
-  <si>
-    <t>Ajay Nagarkoti &amp; Vibhu Dixit - Ae Mere Humsafar'</t>
+    <t>Saturn Syndicate - Never Leave The Night Alone'</t>
   </si>
   <si>
     <t>Banned From The Zoo - Fish Tacos'</t>
   </si>
   <si>
-    <t>James May - All Souls Moon'</t>
-  </si>
-  <si>
-    <t>Alan Evans Trio - I'm Coming Home</t>
+    <t>Serapis - The Dark Abyss'</t>
   </si>
   <si>
     <t>Banned From The Zoo - Turn On Me'</t>
   </si>
   <si>
-    <t>James May - Don't Let Go</t>
-  </si>
-  <si>
-    <t>Alan Mansfield &amp; John Pritchard - Boat Ride'</t>
-  </si>
-  <si>
-    <t>Ben Carrigan - Hey Carrie Anne'</t>
-  </si>
-  <si>
-    <t>James May - Eliza Jane'</t>
-  </si>
-  <si>
-    <t>Albert Kader - Ubiquitous'</t>
-  </si>
-  <si>
-    <t>Ben Carrigan - We'll Talk About It All Tonight</t>
-  </si>
-  <si>
-    <t>James May - Hold On You'</t>
-  </si>
-  <si>
-    <t>Albert Kader - Whiptails'</t>
-  </si>
-  <si>
-    <t>Bobby Nobody - Stitch Up'</t>
-  </si>
-  <si>
-    <t>James May - If You Say'</t>
-  </si>
-  <si>
-    <t>Alejo Granados - Rumba Chonta'</t>
-  </si>
-  <si>
-    <t>Buitraker - Revo X'</t>
-  </si>
-  <si>
-    <t>James May - On The Line'</t>
-  </si>
-  <si>
-    <t>Ale Lak - Nosso Mundo Deixou De Existir'</t>
-  </si>
-  <si>
-    <t>Carlitos Gonzalez - A Place For Us'</t>
-  </si>
-  <si>
-    <t>Johnny Lokke - Promises &amp; Lies'</t>
-  </si>
-  <si>
-    <t>Allen Stone - Naturally'</t>
-  </si>
-  <si>
-    <t>Carol Dant - Do Not Stand'</t>
-  </si>
-  <si>
-    <t>Johnny Lokke - Whisper To A Scream'</t>
-  </si>
-  <si>
-    <t>All Hands Lost - Ambitions'</t>
-  </si>
-  <si>
-    <t>Carol Dant - I Am The Desert'</t>
-  </si>
-  <si>
-    <t>Leaf - Come Around'</t>
-  </si>
-  <si>
-    <t>Amber Skye - Howlin'</t>
-  </si>
-  <si>
-    <t>Detsky Sad - Walkie Talkie'</t>
-  </si>
-  <si>
-    <t>Leaf - Summerghost'</t>
-  </si>
-  <si>
-    <t>Amy Helm &amp; The Handsome Strangers - Rescue Me'</t>
-  </si>
-  <si>
-    <t>Finlay - Same Kind Of Life'</t>
-  </si>
-  <si>
-    <t>Leaf - Wicked'</t>
-  </si>
-  <si>
-    <t>Andres Guazzelli - Attention'</t>
-  </si>
-  <si>
-    <t>Forkupines - Semantics'</t>
-  </si>
-  <si>
-    <t>Pepelpovetru - Tochka'</t>
-  </si>
-  <si>
-    <t>Andres Guazzelli - Flores De Abril'</t>
-  </si>
-  <si>
-    <t>Forkupines - Sleep By The Fire Bloom In Water'</t>
-  </si>
-  <si>
-    <t>Traffic Experiment - Once More (With Feeling)'</t>
-  </si>
-  <si>
-    <t>Andrew Cole - Dead Roses'</t>
-  </si>
-  <si>
-    <t>Forkupines - Sugar - Faith'</t>
-  </si>
-  <si>
-    <t>Traffic Experiment - Sirens'</t>
-  </si>
-  <si>
-    <t>Andrey Yaroshinsky &amp; The Gnessin Academy Chamber Orchestra - W.A. Mozart'\''s Piano Concerto No.12 K414 (Allegro)'</t>
-  </si>
-  <si>
-    <t>Georgia Wonder - Siren'</t>
-  </si>
-  <si>
-    <t>Triviul - Alright'</t>
-  </si>
-  <si>
-    <t>Angela Thomas Wade - Milk Cow Blues'</t>
-  </si>
-  <si>
-    <t>Girls Under Glass - We Feel Alright'</t>
-  </si>
-  <si>
-    <t>Triviul - Angelsaint'</t>
-  </si>
-  <si>
-    <t>Angelo Boltini - This Town'</t>
-  </si>
-  <si>
-    <t>Hollow Ground - Ill Fate'</t>
-  </si>
-  <si>
-    <t>Triviul - Better'</t>
-  </si>
-  <si>
-    <t>Anna Blanton - Rachel'</t>
-  </si>
-  <si>
-    <t>Hollow Ground - Left Blind'</t>
-  </si>
-  <si>
-    <t>Triviul - Dorothy'</t>
-  </si>
-  <si>
-    <t>Anna Blanton - Waves'</t>
-  </si>
-  <si>
-    <t>James Elder &amp; Mark M Thompson - The English Actor'</t>
-  </si>
-  <si>
-    <t>Triviul - Gimme'</t>
-  </si>
-  <si>
-    <t>APZX - Amalgamize'</t>
-  </si>
-  <si>
-    <t>Juliet's Rescue - Heartbeats</t>
-  </si>
-  <si>
-    <t>Triviul - To Sam Rawfers'</t>
-  </si>
-  <si>
-    <t>APZX - Cyber Mower'</t>
-  </si>
-  <si>
-    <t>Little Chicago's Finest - My Own</t>
-  </si>
-  <si>
-    <t>Triviul - Widow (feat. The Fiend)'</t>
-  </si>
-  <si>
-    <t>APZX - Lacuna'</t>
-  </si>
-  <si>
-    <t>Louis Cressy Band - Good Time'</t>
-  </si>
-  <si>
-    <t>Young Griffo - Blood To Bone'</t>
-  </si>
-  <si>
-    <t>APZX - Transcention'</t>
-  </si>
-  <si>
-    <t>Lyndsey Ollard - Catching Up'</t>
-  </si>
-  <si>
-    <t>Young Griffo - Facade'</t>
-  </si>
-  <si>
-    <t>Araujo - The Saga Of Harrison Crabfeathers'</t>
-  </si>
-  <si>
-    <t>M.E.R.C. Music - Knockout'</t>
-  </si>
-  <si>
-    <t>Young Griffo - Pennies'</t>
-  </si>
-  <si>
-    <t>Aron Jaeger - Fly High'</t>
-  </si>
-  <si>
-    <t>Moosmusic - Big Dummy Shake'</t>
-  </si>
-  <si>
-    <t>Asam Classical Soloists - G.F.Handel's Non Lo Diro Col Labbro</t>
-  </si>
-  <si>
-    <t>Motor Tapes - Shore'</t>
-  </si>
-  <si>
-    <t>Atlantis Bound - It Was My Fault For Waiting'</t>
-  </si>
-  <si>
-    <t>Mu - Too Bright'</t>
-  </si>
-  <si>
-    <t>Avalon - All I Know'</t>
-  </si>
-  <si>
-    <t>Nerve 9 - Living Lie'</t>
-  </si>
-  <si>
-    <t>Babe Grand - Aiguille Rouge'</t>
-  </si>
-  <si>
-    <t>Nerve 9 - Pray For The Rain'</t>
-  </si>
-  <si>
-    <t>Babe Grand - King Of The Weekend'</t>
-  </si>
-  <si>
-    <t>Punkdisco - Oral Hygiene'</t>
-  </si>
-  <si>
-    <t>Balkun Brothers - So Hi. So Lo'</t>
-  </si>
-  <si>
-    <t>Raft Monk - Tiring'</t>
-  </si>
-  <si>
-    <t>Banda Magda - Mouche'</t>
-  </si>
-  <si>
-    <t>Sambasevam Shanmugam - Kaathaadi'</t>
+    <t>ShortWave RadioBand - Don't Care</t>
   </si>
   <si>
     <t>Barnstar! - Believer'</t>
   </si>
   <si>
+    <t>ShortWave RadioBand - SomeDay'</t>
+  </si>
+  <si>
+    <t>Barnstar! - You Don'\''t Know'</t>
+  </si>
+  <si>
     <t>Side Effects Project - Sing With Me'</t>
   </si>
   <si>
-    <t>Barnstar! - You Don'\''t Know'</t>
+    <t>BaumXmedia - Dream State (feat. Flora Lin)'</t>
   </si>
   <si>
     <t>Signe Jakobsen - What Have You Done To Me'</t>
   </si>
   <si>
-    <t>BaumXmedia - Dream State (feat. Flora Lin)'</t>
+    <t>BaumXmedia - Koishii (feat. N.I.A.)'</t>
   </si>
   <si>
     <t>Speak Softly - Broken Man'</t>
   </si>
   <si>
-    <t>BaumXmedia - Koishii (feat. N.I.A.)'</t>
+    <t>Ben Flowers - Ecstasy'</t>
   </si>
   <si>
     <t>The Doppler Shift - Atrophy'</t>
@@ -393,97 +399,1102 @@
     <t>Bill Chudziak - Children Of No-one'</t>
   </si>
   <si>
+    <t>W.I.N.D. - Funky To The Bone'</t>
+  </si>
+  <si>
+    <t>Black Bloc - If You Want Success'</t>
+  </si>
+  <si>
+    <t>W.I.N.D. - Temporary Happiness'</t>
+  </si>
+  <si>
+    <t>Blue Lit Moon - Dad's Glad</t>
+  </si>
+  <si>
+    <t>Zeno - Signs'</t>
+  </si>
+  <si>
+    <t>Blues Bastards - Lights Out!'</t>
+  </si>
+  <si>
+    <t>Blues Bastards - Sugar'</t>
+  </si>
+  <si>
+    <t>Boogiesnakes - It's My Right</t>
+  </si>
+  <si>
+    <t>Bosnian Rainbows - Morning Sickness'</t>
+  </si>
+  <si>
+    <t>Bravestar - Downtempo'</t>
+  </si>
+  <si>
+    <t>Brennon Causey - Centauri B'</t>
+  </si>
+  <si>
+    <t>Brian C Cai Fei Hong - Hold Me'</t>
+  </si>
+  <si>
+    <t>Brian C Cai Fei Hong - Never Let You Go'</t>
+  </si>
+  <si>
+    <t>Bronze Radio Return - Mister Mister'</t>
+  </si>
+  <si>
+    <t>Bruks - Kak Tvoi Dela Vova'</t>
+  </si>
+  <si>
+    <t>CEF Mallorca GSSII 2017-18 Sessions - Viviendo Del Reves'</t>
+  </si>
+  <si>
+    <t>Candlebox - Happy Pills'</t>
+  </si>
+  <si>
+    <t>Candlebox - Surrendering'</t>
+  </si>
+  <si>
+    <t>Catfolkin - Odi A La Barretina'</t>
+  </si>
+  <si>
+    <t>Catfolkin - Sant Jordi v2.0'</t>
+  </si>
+  <si>
+    <t>Chad Hollister Band - Eyes'</t>
+  </si>
+  <si>
+    <t>Chris Coltraine - Heather Jane'</t>
+  </si>
+  <si>
+    <t>Chris Coltraine - That's How I Got To Memphis</t>
+  </si>
+  <si>
+    <t>Chris Durban - Celebrate'</t>
+  </si>
+  <si>
+    <t>Cnoc An Tursa - Bannockburn'</t>
+  </si>
+  <si>
+    <t>Colton Benjamin - 21 Grams'</t>
+  </si>
+  <si>
+    <t>Colton Benjamin - Can't Let You Go</t>
+  </si>
+  <si>
+    <t>Colton Benjamin - Sail Away'</t>
+  </si>
+  <si>
+    <t>Cotton Drifting - Rainy Day II'</t>
+  </si>
+  <si>
+    <t>Cunegonda - Guerra Alla Frontiera'</t>
+  </si>
+  <si>
+    <t>Cyrille Aimée - Make You Dance'</t>
+  </si>
+  <si>
+    <t>Dark Ride - Burning Bridges'</t>
+  </si>
+  <si>
+    <t>Dark Ride - Dead Enemies'</t>
+  </si>
+  <si>
+    <t>Dark Ride - Deny Control'</t>
+  </si>
+  <si>
+    <t>Dark Ride - Hammer Down'</t>
+  </si>
+  <si>
+    <t>Dark Ride - Piece Of Me'</t>
+  </si>
+  <si>
+    <t>David Crosby - The Things We Do For Love'</t>
+  </si>
+  <si>
+    <t>David Tyo - It's So Easy To Love You</t>
+  </si>
+  <si>
+    <t>David Tyo - Long Way Home'</t>
+  </si>
+  <si>
+    <t>David Tyo - Never Ebb But Flow'</t>
+  </si>
+  <si>
+    <t>David Tyo - Oh Life'</t>
+  </si>
+  <si>
+    <t>Death Of A Romantic - The Well'</t>
+  </si>
+  <si>
+    <t>Decypher - Unseen'</t>
+  </si>
+  <si>
+    <t>Diesel13 - Colour Me Red'</t>
+  </si>
+  <si>
+    <t>Diesel13 - Roar'</t>
+  </si>
+  <si>
+    <t>Digital Humans - Electrvm'</t>
+  </si>
+  <si>
+    <t>Digital Humans - Relentlessly'</t>
+  </si>
+  <si>
+    <t>Dino On The Loose - Queen's Light</t>
+  </si>
+  <si>
+    <t>Drumtracks - Ghost Bitch'</t>
+  </si>
+  <si>
+    <t>Dry Clean Only - Iron Sheik'</t>
+  </si>
+  <si>
+    <t>Dunning Kruger - EnDance'</t>
+  </si>
+  <si>
+    <t>Dunning Kruger - Japan Song'</t>
+  </si>
+  <si>
+    <t>Dunning Kruger - Sascha'</t>
+  </si>
+  <si>
+    <t>E J Rios - Echo (feat. Analise Rios)'</t>
+  </si>
+  <si>
+    <t>Eager Sails - Post Rock Is Dumb'</t>
+  </si>
+  <si>
+    <t>Eager Sails - The Last Elm'</t>
+  </si>
+  <si>
+    <t>Eat The Feeder - Today's The Day</t>
+  </si>
+  <si>
+    <t>Eat The Feeder - Wickerman'</t>
+  </si>
+  <si>
+    <t>Eddie Garrido - 5th Floor'</t>
+  </si>
+  <si>
+    <t>Eddie Garrido - Africa'</t>
+  </si>
+  <si>
+    <t>Eddie Garrido - Scarlett'</t>
+  </si>
+  <si>
+    <t>Eddie Garrido - Una Semana Sin Ti'</t>
+  </si>
+  <si>
+    <t>Eduard Semenov - Big Man's Death</t>
+  </si>
+  <si>
+    <t>Eduard Semenov - River Of The White Gloom'</t>
+  </si>
+  <si>
+    <t>Egda Carolyn - Saudade Do Teu Beijo'</t>
+  </si>
+  <si>
+    <t>Enda Reilly - An Nasc Nua'</t>
+  </si>
+  <si>
+    <t>Enda Reilly - Cur An Long Ag Seol'</t>
+  </si>
+  <si>
+    <t>Enter The Haggis - Two Bare Hands'</t>
+  </si>
+  <si>
+    <t>Escarras - No Limits'</t>
+  </si>
+  <si>
+    <t>Ethan Winer - Cello Concerto in A Minor'</t>
+  </si>
+  <si>
+    <t>Evening Darling - Passenger Side'</t>
+  </si>
+  <si>
+    <t>FIN - Echoes'</t>
+  </si>
+  <si>
+    <t>Flags - 54'</t>
+  </si>
+  <si>
+    <t>Francisco Perez - Spaces'</t>
+  </si>
+  <si>
+    <t>Fredy V - Not Alone'</t>
+  </si>
+  <si>
+    <t>Fruition - Santa Fe'</t>
+  </si>
+  <si>
+    <t>Funky Dawgs Brass Band - Place 2 Be'</t>
+  </si>
+  <si>
+    <t>Fytakyte - Bitter'</t>
+  </si>
+  <si>
+    <t>Fytakyte - Life Gets In The Way'</t>
+  </si>
+  <si>
+    <t>Fytakyte - Outa Control'</t>
+  </si>
+  <si>
+    <t>G-Bass Project - New Day Dawning'</t>
+  </si>
+  <si>
+    <t>G-Bass Project - You Make Me Smile'</t>
+  </si>
+  <si>
+    <t>Galias - Horizon'</t>
+  </si>
+  <si>
+    <t>Geometría Chicken - Chasque'</t>
+  </si>
+  <si>
+    <t>Geometría Chicken - Das Funkeren'</t>
+  </si>
+  <si>
+    <t>Geometría Chicken - Incidente En Intag'</t>
+  </si>
+  <si>
+    <t>Geometría Chicken - Tubos De Cristal Tela Adhesiva Y Grapas'</t>
+  </si>
+  <si>
+    <t>Ghost Note - Ja Make Ya Dance'</t>
+  </si>
+  <si>
+    <t>Ghostly Beard - A Reason To Leave'</t>
+  </si>
+  <si>
+    <t>Ghostly Beard - Blue'</t>
+  </si>
+  <si>
+    <t>Ghostly Beard - Fool'</t>
+  </si>
+  <si>
+    <t>Ghostly Beard - Set Me Free'</t>
+  </si>
+  <si>
+    <t>Ghostly Beard - Upper Hand'</t>
+  </si>
+  <si>
+    <t>Glen McPhee - A Sailor Once More'</t>
+  </si>
+  <si>
+    <t>Guarna - Ancora Qui'</t>
+  </si>
+  <si>
+    <t>Guarna - Nuvole'</t>
+  </si>
+  <si>
+    <t>Guarna - Orson Welles'</t>
+  </si>
+  <si>
+    <t>Guarna - Paris'</t>
+  </si>
+  <si>
+    <t>Guarna - Parole Vuote'</t>
+  </si>
+  <si>
+    <t>Guarna - Una Vita Sola'</t>
+  </si>
+  <si>
+    <t>H-owl Project - If I Were A Bell'</t>
+  </si>
+  <si>
+    <t>Hannes Keseberg - You Know Better'</t>
+  </si>
+  <si>
+    <t>Headwound Harry - XXXV'</t>
+  </si>
+  <si>
+    <t>Hollowstate - Gravediggers'</t>
+  </si>
+  <si>
+    <t>House Of Bedlam - Eventide'</t>
+  </si>
+  <si>
+    <t>How To Kill A Conversation - Heart On My Thumb'</t>
+  </si>
+  <si>
+    <t>How To Kill A Conversation - Location Location'</t>
+  </si>
+  <si>
+    <t>How To Kill A Conversation - Mute'</t>
+  </si>
+  <si>
+    <t>How To Kill A Conversation - Oil'</t>
+  </si>
+  <si>
+    <t>How To Kill A Conversation - Showmonster'</t>
+  </si>
+  <si>
+    <t>Human Radio - You &amp; Me &amp; The Radio'</t>
+  </si>
+  <si>
+    <t>Hurray For The Riff Raff - Living In The City'</t>
+  </si>
+  <si>
+    <t>Ian Dearden (with Vicki Swann &amp; Jonny Dyer) - Song For John'</t>
+  </si>
+  <si>
+    <t>Ian Dearden - Terania Creek Walking'</t>
+  </si>
+  <si>
+    <t>Ian Dearden - Thursday Reverie'</t>
+  </si>
+  <si>
+    <t>Ikebe Shakedown - The Last Stand'</t>
+  </si>
+  <si>
+    <t>Ilmari Kontia - Funkkihillo'</t>
+  </si>
+  <si>
+    <t>Imp Act - Another Life'</t>
+  </si>
+  <si>
+    <t>Imp Act - Back In Time'</t>
+  </si>
+  <si>
+    <t>Imp Act - The Island Of Alsocanla'</t>
+  </si>
+  <si>
+    <t>In This Place - 1125'</t>
+  </si>
+  <si>
+    <t>J P Lantieri - Chardonnay'</t>
+  </si>
+  <si>
+    <t>J P Lantieri - Chardonnay (Lektrix Remix)'</t>
+  </si>
+  <si>
+    <t>J P Lantieri - Chardonnay (Mystik Vibe Remix)'</t>
+  </si>
+  <si>
+    <t>J P Lantieri - Chardonnay (Ornery Remix)'</t>
+  </si>
+  <si>
+    <t>J P Lantieri - Riesling'</t>
+  </si>
+  <si>
+    <t>J0K3R - September Trance'</t>
+  </si>
+  <si>
+    <t>Jackie Greene - Don't Let The Devil Take Your Mind</t>
+  </si>
+  <si>
+    <t>Jade Safirah - Paraisso'</t>
+  </si>
+  <si>
+    <t>James Fabio - Machines On Treadmills'</t>
+  </si>
+  <si>
+    <t>James Timms x Benjamin Coosemans - Can You Say The Same'</t>
+  </si>
+  <si>
+    <t>Jamie Kent - All American Mutt'</t>
+  </si>
+  <si>
+    <t>Jay Menon - Through My Eyes'</t>
+  </si>
+  <si>
+    <t>Jeffrey Hayat - Alex The Adventurer'</t>
+  </si>
+  <si>
+    <t>Jesper Buhl Trio - What Is This Thing Called Love'</t>
+  </si>
+  <si>
+    <t>Jesse Joy - Nearly There'</t>
+  </si>
+  <si>
+    <t>Jesse Joy - Release'</t>
+  </si>
+  <si>
+    <t>Jessica Childress - Slow Down'</t>
+  </si>
+  <si>
+    <t>Jet B - Suit You'</t>
+  </si>
+  <si>
+    <t>Jet B - To The Wolves'</t>
+  </si>
+  <si>
+    <t>John McKay - Daisy Daisy'</t>
+  </si>
+  <si>
+    <t>Johnny Swain - Freedom (Lay Down My Live For You)'</t>
+  </si>
+  <si>
+    <t>Jokers - Sea Of Leaves'</t>
+  </si>
+  <si>
+    <t>Juanita Dientes Verdes - Dios Salve El R&amp;R - Cielo Sin Santos'</t>
+  </si>
+  <si>
+    <t>Juanita Dientes Verdes - Donde No Llega La Luz'</t>
+  </si>
+  <si>
+    <t>Juanita Dientes Verdes - Placido Domingo'</t>
+  </si>
+  <si>
+    <t>Jules King - Never Stop'</t>
+  </si>
+  <si>
+    <t>Justin Myles - Alone With You'</t>
+  </si>
+  <si>
+    <t>Kangoro - Animal'</t>
+  </si>
+  <si>
+    <t>Kangoro - Bitch Is Paranoid'</t>
+  </si>
+  <si>
+    <t>Kangoro - Clinic A'</t>
+  </si>
+  <si>
+    <t>Kangoro - Easy Tiger'</t>
+  </si>
+  <si>
+    <t>Kangoro - King Rascal'</t>
+  </si>
+  <si>
+    <t>Kangoro - Rockshow'</t>
+  </si>
+  <si>
+    <t>Karl Hungus - Got Your Love'</t>
+  </si>
+  <si>
+    <t>Kat Wright - By My Side'</t>
+  </si>
+  <si>
+    <t>Kat Wright - Contact'</t>
+  </si>
+  <si>
+    <t>Keystone Angel - Afterglow'</t>
+  </si>
+  <si>
+    <t>Killa-L - Window'</t>
+  </si>
+  <si>
+    <t>Kung Fu - Daddy D'</t>
+  </si>
+  <si>
+    <t>Kung Fu - Joy Ride'</t>
+  </si>
+  <si>
+    <t>Last Legacy - Who's Who In Hell</t>
+  </si>
+  <si>
+    <t>Lead Inc - The Dice'</t>
+  </si>
+  <si>
+    <t>Lead Inc - The Inner Circle'</t>
+  </si>
+  <si>
+    <t>Lead Inc - Way Of Life'</t>
+  </si>
+  <si>
+    <t>Leftover Salmon - River's Risin</t>
+  </si>
+  <si>
+    <t>Lindy Hip Big Band - Makin' Whoopee</t>
+  </si>
+  <si>
+    <t>Lindy Hip Big Band - The Opener'</t>
+  </si>
+  <si>
+    <t>Lingua Funqa - Do It Again'</t>
+  </si>
+  <si>
+    <t>Lingua Funqa - Just One Minute'</t>
+  </si>
+  <si>
+    <t>Lorenzo Price - Changing Things (Dorian'\''s Song)'</t>
+  </si>
+  <si>
+    <t>Ludø - Sandstorm'</t>
+  </si>
+  <si>
+    <t>Mady &amp; Seus Namorados - Pirarucumbia'</t>
+  </si>
+  <si>
+    <t>Magician's Nephew - Get Out Of Bed</t>
+  </si>
+  <si>
+    <t>Magician's Nephew - Symphony Of Silence</t>
+  </si>
+  <si>
+    <t>Major Lazer - Light It Up'</t>
+  </si>
+  <si>
+    <t>Malenky Slovos - Matterplay'</t>
+  </si>
+  <si>
+    <t>Man About A Dog - Maggie May'</t>
+  </si>
+  <si>
+    <t>Marc Ellason - Treadmills'</t>
+  </si>
+  <si>
+    <t>Marc Ellason - Upside Down'</t>
+  </si>
+  <si>
+    <t>Marcus Boeltz - Shut Up And Play'</t>
+  </si>
+  <si>
+    <t>Maurizio Pagnutti Sextet - All The Gin Is Gone'</t>
+  </si>
+  <si>
+    <t>Maurizio Pagnutti Sextet - Bess'</t>
+  </si>
+  <si>
+    <t>McLovins - Buildin' It Up</t>
+  </si>
+  <si>
+    <t>MekaPhil - Alive (Yet Free)'</t>
+  </si>
+  <si>
+    <t>MekaPhil - Timeless (Part 2)'</t>
+  </si>
+  <si>
+    <t>Mike Skalandunas - Sun Drenched'</t>
+  </si>
+  <si>
+    <t>Mirroman - Fever'</t>
+  </si>
+  <si>
+    <t>Mistrusted - Carnival Charade'</t>
+  </si>
+  <si>
+    <t>Mistrusted - Cascade'</t>
+  </si>
+  <si>
+    <t>Mistrusted - Polemic'</t>
+  </si>
+  <si>
+    <t>Mistrusted - Trapped'</t>
+  </si>
+  <si>
+    <t>Monsieur Periné - Encanto Tropical'</t>
+  </si>
+  <si>
+    <t>Mustafa Albazy - Shela Ya Marhaba'</t>
+  </si>
+  <si>
+    <t>Mustafa Albazy - Tgheer'</t>
+  </si>
+  <si>
+    <t>Mykey Massacre - Don't Please Stay</t>
+  </si>
+  <si>
+    <t>Nahum Strickland - Steampunk Siege'</t>
+  </si>
+  <si>
+    <t>Neon Hornet - Take It Off'</t>
+  </si>
+  <si>
+    <t>Nervbloc - Slapback'</t>
+  </si>
+  <si>
+    <t>Neuromantic - The Calm'</t>
+  </si>
+  <si>
+    <t>Nicki Bluhm &amp; The Gramblers - Go Go Go'</t>
+  </si>
+  <si>
+    <t>Nominal6 - Escape Of The Hopping Rhinos'</t>
+  </si>
+  <si>
+    <t>North To Alaska - All The Same'</t>
+  </si>
+  <si>
+    <t>Nova-One Studio - Four Graham'</t>
+  </si>
+  <si>
+    <t>Nzca Lines - Pure Luxury'</t>
+  </si>
+  <si>
+    <t>OctopusOnFire - Russian Bot'</t>
+  </si>
+  <si>
+    <t>One Time Weekend - One Time Weekend'</t>
+  </si>
+  <si>
+    <t>Our Good Wolf - Tourism'</t>
+  </si>
+  <si>
+    <t>Pablo Martin - Progresivo 1 El Vuelo'</t>
+  </si>
+  <si>
+    <t>Painted Skies - Piers'</t>
+  </si>
+  <si>
+    <t>Pandemia eRock - Macaco Regresso'</t>
+  </si>
+  <si>
+    <t>Pawel Maciwoda - 1 Of The First'</t>
+  </si>
+  <si>
+    <t>Perdidos Na Zona Sul - Meu Bem'</t>
+  </si>
+  <si>
+    <t>Perpetual Escape - Duty &amp; Memories'</t>
+  </si>
+  <si>
+    <t>Perpetual Escape - Into My Dreams'</t>
+  </si>
+  <si>
+    <t>Perpetual Escape - Roots Of Mankind'</t>
+  </si>
+  <si>
+    <t>Perpetual Escape - Sin Six'</t>
+  </si>
+  <si>
+    <t>Perpetual Escape - Stop And Rise'</t>
+  </si>
+  <si>
+    <t>Peter White - Crazy Girl'</t>
+  </si>
+  <si>
+    <t>Peter White - The Blues Is A Lady'</t>
+  </si>
+  <si>
+    <t>Phre The Eon - Everybody's Falling Apart</t>
+  </si>
+  <si>
+    <t>Plan Caliente - El Marinero'</t>
+  </si>
+  <si>
+    <t>Plywood Cowboy - Last Night's Gig</t>
+  </si>
+  <si>
+    <t>Pretty Saro - Carolina In The Pines'</t>
+  </si>
+  <si>
+    <t>Primakova - The Glass'</t>
+  </si>
+  <si>
+    <t>Purple Hat Mob - Access Denied'</t>
+  </si>
+  <si>
+    <t>Qupe - Ayni Nehirde'</t>
+  </si>
+  <si>
+    <t>Random Somebody - Crazy For Me'</t>
+  </si>
+  <si>
+    <t>Rattletree - Just Let It Go'</t>
+  </si>
+  <si>
+    <t>Rebuild The Evil - Burial Of Silence'</t>
+  </si>
+  <si>
+    <t>Remember December - C U Next Time'</t>
+  </si>
+  <si>
+    <t>Remember Jones - Don't Put Me On Hold</t>
+  </si>
+  <si>
+    <t>Ricardo Santiago - Dream No. 12'</t>
+  </si>
+  <si>
+    <t>Ricardo Santiago - Let The Music Fade Away'</t>
+  </si>
+  <si>
+    <t>Ricky Legend - Comet'</t>
+  </si>
+  <si>
+    <t>Ricky Legend - Going To The Moon'</t>
+  </si>
+  <si>
+    <t>Ripe - 4 Out Of 10'</t>
+  </si>
+  <si>
+    <t>Ripe - Little Lighter'</t>
+  </si>
+  <si>
+    <t>Robert Hammon - The Elephant'</t>
+  </si>
+  <si>
+    <t>Rod Alexander - Tears In The Rain'</t>
+  </si>
+  <si>
+    <t>Ronnie Jones - Why Don't You Stay</t>
+  </si>
+  <si>
+    <t>Rovers Ahead - It's In These Times</t>
+  </si>
+  <si>
+    <t>Rubblebucket - Carousel Ride'</t>
+  </si>
+  <si>
+    <t>Ruby Roads - Rat Race'</t>
+  </si>
+  <si>
+    <t>Ryan Cali - Back Down'</t>
+  </si>
+  <si>
+    <t>Ryan Cali - Crazy'</t>
+  </si>
+  <si>
+    <t>Scott Elliott - Aeternum Vale'</t>
+  </si>
+  <si>
+    <t>Secretariat - Borderline'</t>
+  </si>
+  <si>
+    <t>Secretariat - Over The Top'</t>
+  </si>
+  <si>
+    <t>Selwyn Jazz - Bill Ashton's Much Too Much</t>
+  </si>
+  <si>
+    <t>Silence Is Near - The Forthcoming Turn'</t>
+  </si>
+  <si>
+    <t>Silona - Learning How To Fly'</t>
+  </si>
+  <si>
+    <t>Six Fox Whiskey - Hope And The Sea'</t>
+  </si>
+  <si>
+    <t>SkalyVan - Agony'</t>
+  </si>
+  <si>
+    <t>SkalyVan - All To End'</t>
+  </si>
+  <si>
+    <t>Skelpolu - Anomalous Weeping'</t>
+  </si>
+  <si>
+    <t>Skelpolu - Cold Strive'</t>
+  </si>
+  <si>
+    <t>Skelpolu - Entwine'</t>
+  </si>
+  <si>
+    <t>Skelpolu - Human Mistakes'</t>
+  </si>
+  <si>
+    <t>Skelpolu - Long Road'</t>
+  </si>
+  <si>
+    <t>Skelpolu - Resurrection Resurrected'</t>
+  </si>
+  <si>
+    <t>Skelpolu - Together Alone'</t>
+  </si>
+  <si>
+    <t>Skyeez &amp; The Whiteflies - Banana Split'</t>
+  </si>
+  <si>
+    <t>Skyeez &amp; The Whiteflies - Jump Across'</t>
+  </si>
+  <si>
+    <t>Sonnet &amp; Alcohol - Back To The Nineties'</t>
+  </si>
+  <si>
+    <t>Soren - A Little Late'</t>
+  </si>
+  <si>
+    <t>Sound On Sound Demo - Mystery'</t>
+  </si>
+  <si>
+    <t>Spektakulatius - Christmas Blues'</t>
+  </si>
+  <si>
+    <t>Spektakulatius - Is You Is Or Is You Ain't</t>
+  </si>
+  <si>
+    <t>Spektakulatius - Jeden Winter'</t>
+  </si>
+  <si>
+    <t>Spektakulatius - Our Love Is Here To Stay'</t>
+  </si>
+  <si>
+    <t>Spektakulatius - Wayfaring Stranger'</t>
+  </si>
+  <si>
+    <t>Spektakulatius - What Child Is This'</t>
+  </si>
+  <si>
+    <t>Spike Mullings - Mike's Sulking</t>
+  </si>
+  <si>
+    <t>St Vitus - Word Gets Around'</t>
+  </si>
+  <si>
+    <t>Starnes &amp; Shah - Prodigal'</t>
+  </si>
+  <si>
+    <t>Stefano Petrocca - Foundation'</t>
+  </si>
+  <si>
+    <t>Storm Of Particles - Of Ice And Hopeless Fate'</t>
+  </si>
+  <si>
+    <t>Street Noise - I'd Rather Be Drinkin</t>
+  </si>
+  <si>
+    <t>Street Noise - Revelations'</t>
+  </si>
+  <si>
+    <t>Street Noise - You Are The One'</t>
+  </si>
+  <si>
+    <t>Strobe - Gone'</t>
+  </si>
+  <si>
+    <t>Strobe - Maya'</t>
+  </si>
+  <si>
+    <t>Strobe - Nostalgic'</t>
+  </si>
+  <si>
+    <t>Swinging Steaks - Lost My Way'</t>
+  </si>
+  <si>
+    <t>Szlachetka - Heart Of My Home Town'</t>
+  </si>
+  <si>
+    <t>Szymon Skiba - Death Metal Sucks'</t>
+  </si>
+  <si>
+    <t>Szymon Skiba - Let's Dance</t>
+  </si>
+  <si>
+    <t>Szymon Skiba - Some Trashy Thrash I Guess'</t>
+  </si>
+  <si>
+    <t>Tall Heights - Spirit Cold'</t>
+  </si>
+  <si>
+    <t>Ted Behrman - Convertible'</t>
+  </si>
+  <si>
+    <t>The Apprehended - Still Flyin'</t>
+  </si>
+  <si>
+    <t>The Balazs Daniel Boogie Woogie Trio - Own Way To Boogie'</t>
+  </si>
+  <si>
+    <t>The Black Crown - Cage'</t>
+  </si>
+  <si>
+    <t>The Black Crown - Flames'</t>
+  </si>
+  <si>
+    <t>The Brew - What I Want'</t>
+  </si>
+  <si>
+    <t>The Bright Star Alliance - Error 404'</t>
+  </si>
+  <si>
+    <t>The Butterfly Effect - An Ultra Violet Apology'</t>
+  </si>
+  <si>
+    <t>The Butterfly Effect - Fairytale'</t>
+  </si>
+  <si>
+    <t>The Butterfly Effect - Preach Right Here'</t>
+  </si>
+  <si>
+    <t>The Complainiacs - Etc'</t>
+  </si>
+  <si>
+    <t>The Funny Valentines - Sleigh Ride'</t>
+  </si>
+  <si>
+    <t>The Great Enough - Die Young'</t>
+  </si>
+  <si>
+    <t>The Left Backs - The Feeling'</t>
+  </si>
+  <si>
+    <t>The Lonely Wild - Scar'</t>
+  </si>
+  <si>
+    <t>The Long Wait - Back Home To Blue'</t>
+  </si>
+  <si>
+    <t>The Long Wait - Dark Horses'</t>
+  </si>
+  <si>
+    <t>The Long Wait - Drag'</t>
+  </si>
+  <si>
+    <t>The Long Wait - Lookout Mountain'</t>
+  </si>
+  <si>
+    <t>The Long Wait - Santa'</t>
+  </si>
+  <si>
+    <t>The Maybe Next Years - One Flip Flop'</t>
+  </si>
+  <si>
+    <t>The Mountaineering Club Orchestra - Cruising The Ice'</t>
+  </si>
+  <si>
+    <t>The Penniless Wild - Seat Back'</t>
+  </si>
+  <si>
+    <t>The Timezone - GOTGF'</t>
+  </si>
+  <si>
+    <t>The Travelling Band - Passing Ships'</t>
+  </si>
+  <si>
+    <t>The Travelling Band - Quicksand'</t>
+  </si>
+  <si>
+    <t>The Western Den - Like You Do'</t>
+  </si>
+  <si>
+    <t>The Wrong'uns - Rothko</t>
+  </si>
+  <si>
+    <t>Tholas P. - Such Fine People'</t>
+  </si>
+  <si>
+    <t>Tim Taler - Stalker'</t>
+  </si>
+  <si>
+    <t>Timo And The Timezone - Just Don't Talk</t>
+  </si>
+  <si>
+    <t>Timo Carlier - The Road Ahead'</t>
+  </si>
+  <si>
+    <t>Titanium - Haunted Age'</t>
+  </si>
+  <si>
+    <t>Tommy Marcinek - Happy Blues'</t>
+  </si>
+  <si>
+    <t>Tommy Marcinek - My Childhood Sweetheart'</t>
+  </si>
+  <si>
+    <t>Trafficker - My Father Never Loved Me'</t>
+  </si>
+  <si>
+    <t>Trick Bird - Window'</t>
+  </si>
+  <si>
+    <t>Trybes - Running Out'</t>
+  </si>
+  <si>
+    <t>Turbosauro - Magilla'</t>
+  </si>
+  <si>
+    <t>Turkuaz - Lookin' Tough Feelin' Good</t>
+  </si>
+  <si>
+    <t>Turkuaz - Tip Toe Through The Crypto'</t>
+  </si>
+  <si>
+    <t>Turn Back To Spring - Another Day Calling'</t>
+  </si>
+  <si>
+    <t>Tytillidie x Xollllinnnn - Bankroll'</t>
+  </si>
+  <si>
+    <t>U T Gandhi - Arto'</t>
+  </si>
+  <si>
+    <t>Umbriferous - Sandcastles (Illusion)'</t>
+  </si>
+  <si>
+    <t>Umphrey's McGee - Crucial Taunt</t>
+  </si>
+  <si>
+    <t>Uncle Dad - Who I Am'</t>
+  </si>
+  <si>
+    <t>Unicorn Rodeo - Maybe'</t>
+  </si>
+  <si>
+    <t>V.M.GY - Aureus Necrosis'</t>
+  </si>
+  <si>
+    <t>V.M.GY - Bloodshed'</t>
+  </si>
+  <si>
+    <t>V.M.GY - Equilibrium'</t>
+  </si>
+  <si>
+    <t>V.M.GY - Fountain Of Eternal Life'</t>
+  </si>
+  <si>
+    <t>V.M.GY - Omen'</t>
+  </si>
+  <si>
+    <t>V.M.GY - Purgatory'</t>
+  </si>
+  <si>
+    <t>V.M.GY - The Crown'</t>
+  </si>
+  <si>
+    <t>Violent Bliss - Voiceless Siren'</t>
+  </si>
+  <si>
+    <t>Voelund - Comfort Lives In Belief'</t>
+  </si>
+  <si>
+    <t>Wall Of Death - Femme'</t>
+  </si>
+  <si>
     <t>We Fell From The Sky - Not You'</t>
   </si>
   <si>
-    <t>Black Bloc - If You Want Success'</t>
-  </si>
-  <si>
-    <t>W.I.N.D. - Funky To The Bone'</t>
-  </si>
-  <si>
-    <t>Blue Lit Moon - Dad's Glad</t>
-  </si>
-  <si>
-    <t>W.I.N.D. - Temporary Happiness'</t>
-  </si>
-  <si>
-    <t>Blues Bastards - Lights Out!'</t>
-  </si>
-  <si>
-    <t>Zeno - Signs'</t>
-  </si>
-  <si>
-    <t>Blues Bastards - Sugar'</t>
-  </si>
-  <si>
-    <t>Bolz &amp; Knecht - Brahms'\'' Hungarian Dance No. 5'</t>
-  </si>
-  <si>
-    <t>Bolz &amp; Knecht - Summertime'</t>
-  </si>
-  <si>
-    <t>Boogiesnakes - It's My Right</t>
-  </si>
-  <si>
-    <t>Bosnian Rainbows - Morning Sickness'</t>
-  </si>
-  <si>
-    <t>Bravestar - Downtempo'</t>
-  </si>
-  <si>
-    <t>Brian C Cai Fei Hong - Never Let You Go'</t>
-  </si>
-  <si>
-    <t>Bronze Radio Return - Mister Mister'</t>
-  </si>
-  <si>
-    <t>Bruks - Kak Tvoi Dela Vova'</t>
-  </si>
-  <si>
-    <t>Camilla Francesca Bull - Va! Laisse Couler Mes Larmes'</t>
-  </si>
-  <si>
-    <t>Camilla Francesca Bull - W.A.Mozart's Voi Che Sapete</t>
-  </si>
-  <si>
-    <t>Candlebox - Happy Pills'</t>
-  </si>
-  <si>
-    <t>Candlebox - Surrendering'</t>
-  </si>
-  <si>
-    <t>Catfolkin - Odi A La Barretina'</t>
-  </si>
-  <si>
-    <t>Catfolkin - Sant Jordi v2.0'</t>
-  </si>
-  <si>
-    <t>CEF Mallorca GSSII 2017-18 Sessions - Viviendo Del Reves'</t>
-  </si>
-  <si>
-    <t>Chris Coltraine - Heather Jane'</t>
-  </si>
-  <si>
-    <t>Chris Coltraine - That's How I Got To Memphis</t>
-  </si>
-  <si>
-    <t>Chris Durban - Celebrate'</t>
-  </si>
-  <si>
-    <t>Cnoc An Tursa - Bannockburn'</t>
-  </si>
-  <si>
-    <t>Colton Benjamin - 21 Grams'</t>
-  </si>
-  <si>
-    <t>Colton Benjamin - Can't Let You Go</t>
-  </si>
-  <si>
-    <t>Colton Benjamin - Sail Away'</t>
-  </si>
-  <si>
-    <t>Cotton Drifting - Rainy Day II'</t>
+    <t>Wesley Morgan - Backroom In Tulsa'</t>
+  </si>
+  <si>
+    <t>Wesley Morgan - Flesh And Bone'</t>
+  </si>
+  <si>
+    <t>Wess Meets West - 64 Bristol'</t>
+  </si>
+  <si>
+    <t>Wess Meets West - Direct Experience'</t>
+  </si>
+  <si>
+    <t>Whitten And. Williams - How To Make A Mirror'</t>
+  </si>
+  <si>
+    <t>Wide Waters - Into The Forest'</t>
+  </si>
+  <si>
+    <t>Will Evans - Me And My Crew'</t>
+  </si>
+  <si>
+    <t>Will Knox - Cog In The Machine'</t>
+  </si>
+  <si>
+    <t>Wires - Red On You'</t>
+  </si>
+  <si>
+    <t>Wolf'\''s Head &amp; Vixen Morris Band - Lament'</t>
+  </si>
+  <si>
+    <t>Woodfire - Animals'</t>
+  </si>
+  <si>
+    <t>Woodfire - Get Fooled'</t>
+  </si>
+  <si>
+    <t>Woodfire - Haunted House'</t>
+  </si>
+  <si>
+    <t>Woodfire - Outer'</t>
+  </si>
+  <si>
+    <t>Woodfire - Wealthy In Time'</t>
+  </si>
+  <si>
+    <t>Woven Hollow - Tell Me Nice'</t>
+  </si>
+  <si>
+    <t>Zane Carney &amp; Friends - Talk To Me Baby'</t>
   </si>
   <si>
     <t>cryonicPAX - Another Way'</t>
@@ -498,1033 +1509,22 @@
     <t>cryonicPAX - Melancholy'</t>
   </si>
   <si>
-    <t>Cunegonda - Guerra Alla Frontiera'</t>
-  </si>
-  <si>
-    <t>Cyrille Aimée - Make You Dance'</t>
-  </si>
-  <si>
-    <t>Dark Ride - Burning Bridges'</t>
-  </si>
-  <si>
-    <t>Dark Ride - Dead Enemies'</t>
-  </si>
-  <si>
-    <t>Dark Ride - Deny Control'</t>
-  </si>
-  <si>
-    <t>Dark Ride - Hammer Down'</t>
-  </si>
-  <si>
-    <t>Dark Ride - Piece Of Me'</t>
-  </si>
-  <si>
-    <t>David Crosby - The Things We Do For Love'</t>
-  </si>
-  <si>
-    <t>David Tyo - It's So Easy To Love You</t>
-  </si>
-  <si>
-    <t>David Tyo - Long Way Home'</t>
-  </si>
-  <si>
-    <t>David Tyo - Never Ebb But Flow'</t>
-  </si>
-  <si>
-    <t>David Tyo - Oh Life'</t>
-  </si>
-  <si>
-    <t>David Youngs - Dust You And Me'</t>
-  </si>
-  <si>
-    <t>David Youngs - Long Overdue'</t>
-  </si>
-  <si>
-    <t>David Youngs - Technomantra'</t>
-  </si>
-  <si>
-    <t>Death Of A Romantic - The Well'</t>
-  </si>
-  <si>
-    <t>Decypher - Unseen'</t>
-  </si>
-  <si>
-    <t>Diesel13 - Colour Me Red'</t>
-  </si>
-  <si>
-    <t>Diesel13 - Roar'</t>
-  </si>
-  <si>
-    <t>Digital Humans - Electrvm'</t>
-  </si>
-  <si>
-    <t>Digital Humans - Relentlessly'</t>
-  </si>
-  <si>
-    <t>Dino On The Loose - Queen's Light</t>
-  </si>
-  <si>
-    <t>Don Camillo Choir - The Marsh Marigold's Song</t>
-  </si>
-  <si>
-    <t>Don Camillo Choir - The Woodworm Song'</t>
-  </si>
-  <si>
-    <t>Don Camillo Choir - Trude The Bumblebee'</t>
-  </si>
-  <si>
-    <t>Drumtracks - Ghost Bitch'</t>
-  </si>
-  <si>
-    <t>Dry Clean Only - Iron Sheik'</t>
-  </si>
-  <si>
-    <t>Dunning Kruger - EnDance'</t>
-  </si>
-  <si>
-    <t>Dunning Kruger - Japan Song'</t>
-  </si>
-  <si>
-    <t>Dunning Kruger - Sascha'</t>
-  </si>
-  <si>
-    <t>Eager Sails - Post Rock Is Dumb'</t>
-  </si>
-  <si>
-    <t>Eager Sails - The Last Elm'</t>
-  </si>
-  <si>
-    <t>Eat The Feeder - Today's The Day</t>
-  </si>
-  <si>
-    <t>Eat The Feeder - Wickerman'</t>
-  </si>
-  <si>
-    <t>Eddie Garrido - 5th Floor'</t>
-  </si>
-  <si>
-    <t>Eddie Garrido - Africa'</t>
-  </si>
-  <si>
-    <t>Eddie Garrido - Scarlett'</t>
-  </si>
-  <si>
-    <t>Eddie Garrido - Una Semana Sin Ti'</t>
-  </si>
-  <si>
-    <t>Eduard Semenov - Big Man's Death</t>
-  </si>
-  <si>
-    <t>Eduard Semenov - River Of The White Gloom'</t>
-  </si>
-  <si>
-    <t>Egda Carolyn - Saudade Do Teu Beijo'</t>
-  </si>
-  <si>
-    <t>E J Rios - Echo (feat. Analise Rios)'</t>
-  </si>
-  <si>
-    <t>Enda Reilly - An Nasc Nua'</t>
-  </si>
-  <si>
-    <t>Enda Reilly - Cur An Long Ag Seol'</t>
-  </si>
-  <si>
-    <t>Enter The Haggis - Two Bare Hands'</t>
-  </si>
-  <si>
-    <t>Ethan Winer - Cello Concerto in A Minor'</t>
-  </si>
-  <si>
-    <t>Evening Darling - Passenger Side'</t>
-  </si>
-  <si>
-    <t>FIN - Echoes'</t>
-  </si>
-  <si>
-    <t>Flags - 54'</t>
-  </si>
-  <si>
-    <t>Francisco Perez - Spaces'</t>
-  </si>
-  <si>
-    <t>Fredy V - Not Alone'</t>
-  </si>
-  <si>
-    <t>Fruition - Santa Fe'</t>
-  </si>
-  <si>
-    <t>Funky Dawgs Brass Band - Place 2 Be'</t>
-  </si>
-  <si>
-    <t>Fytakyte - Bitter'</t>
-  </si>
-  <si>
-    <t>Fytakyte - Life Gets In The Way'</t>
-  </si>
-  <si>
-    <t>Fytakyte - Outa Control'</t>
-  </si>
-  <si>
-    <t>Galias - Horizon'</t>
-  </si>
-  <si>
-    <t>G-Bass Project - New Day Dawning'</t>
-  </si>
-  <si>
-    <t>G-Bass Project - You Make Me Smile'</t>
-  </si>
-  <si>
-    <t>Geometría Chicken - Chasque'</t>
-  </si>
-  <si>
-    <t>Geometría Chicken - Das Funkeren'</t>
-  </si>
-  <si>
-    <t>Geometría Chicken - Incidente En Intag'</t>
-  </si>
-  <si>
-    <t>Geometría Chicken - Tubos De Cristal Tela Adhesiva Y Grapas'</t>
-  </si>
-  <si>
-    <t>Ghostly Beard - A Reason To Leave'</t>
-  </si>
-  <si>
-    <t>Ghostly Beard - Blue'</t>
-  </si>
-  <si>
-    <t>Ghostly Beard - Fool'</t>
-  </si>
-  <si>
-    <t>Ghostly Beard - Set Me Free'</t>
-  </si>
-  <si>
-    <t>Ghostly Beard - Upper Hand'</t>
-  </si>
-  <si>
-    <t>Ghost Note - Ja Make Ya Dance'</t>
-  </si>
-  <si>
-    <t>Glen McPhee - A Sailor Once More'</t>
-  </si>
-  <si>
-    <t>Guarna - Ancora Qui'</t>
-  </si>
-  <si>
-    <t>Guarna - Nuvole'</t>
-  </si>
-  <si>
-    <t>Guarna - Parole Vuote'</t>
-  </si>
-  <si>
-    <t>Hannes Keseberg - You Know Better'</t>
-  </si>
-  <si>
-    <t>Headwound Harry - XXXV'</t>
-  </si>
-  <si>
-    <t>Hollowstate - Gravediggers'</t>
-  </si>
-  <si>
-    <t>H-owl Project - If I Were A Bell'</t>
-  </si>
-  <si>
-    <t>How To Kill A Conversation - Heart On My Thumb'</t>
-  </si>
-  <si>
-    <t>How To Kill A Conversation - Location Location'</t>
-  </si>
-  <si>
-    <t>How To Kill A Conversation - Mute'</t>
-  </si>
-  <si>
-    <t>How To Kill A Conversation - Oil'</t>
-  </si>
-  <si>
-    <t>How To Kill A Conversation - Showmonster'</t>
-  </si>
-  <si>
-    <t>Human Radio - You &amp; Me &amp; The Radio'</t>
-  </si>
-  <si>
-    <t>Hurray For The Riff Raff - Living In The City'</t>
-  </si>
-  <si>
-    <t>Ian Dearden - Terania Creek Walking'</t>
-  </si>
-  <si>
-    <t>Ian Dearden - Thursday Reverie'</t>
-  </si>
-  <si>
-    <t>Ikebe Shakedown - The Last Stand'</t>
-  </si>
-  <si>
-    <t>Ilmari Kontia - Funkkihillo'</t>
-  </si>
-  <si>
-    <t>Imp Act - Another Life'</t>
-  </si>
-  <si>
-    <t>Imp Act - Back In Time'</t>
-  </si>
-  <si>
-    <t>Imp Act - The Island Of Alsocanla'</t>
-  </si>
-  <si>
     <t>impossible c o l o u r s - Dune Rider'</t>
   </si>
   <si>
     <t>impossible c o l o u r s - The Truth'</t>
   </si>
   <si>
-    <t>In This Place - 1125'</t>
-  </si>
-  <si>
-    <t>J0K3R - September Trance'</t>
-  </si>
-  <si>
-    <t>Jackie Greene - Don't Let The Devil Take Your Mind</t>
-  </si>
-  <si>
-    <t>Jade Safirah - Paraisso'</t>
-  </si>
-  <si>
-    <t>James Fabio - Machines On Treadmills'</t>
-  </si>
-  <si>
-    <t>James Timms x Benjamin Coosemans - Can You Say The Same'</t>
-  </si>
-  <si>
-    <t>Jamie Kent - All American Mutt'</t>
-  </si>
-  <si>
-    <t>Jay Menon - Through My Eyes'</t>
-  </si>
-  <si>
-    <t>Jeffrey Hayat - Alex The Adventurer'</t>
-  </si>
-  <si>
-    <t>Jesper Buhl Trio - What Is This Thing Called Love'</t>
-  </si>
-  <si>
-    <t>Jesse Joy - Nearly There'</t>
-  </si>
-  <si>
-    <t>Jesse Joy - Release'</t>
-  </si>
-  <si>
-    <t>Jessica Childress - Slow Down'</t>
-  </si>
-  <si>
-    <t>Jet B - Suit You'</t>
-  </si>
-  <si>
-    <t>Jet B - To The Wolves'</t>
-  </si>
-  <si>
-    <t>John McKay - Daisy Daisy'</t>
-  </si>
-  <si>
-    <t>Johnny Swain - Freedom (Lay Down My Live For You)'</t>
-  </si>
-  <si>
-    <t>Jokers - Sea Of Leaves'</t>
-  </si>
-  <si>
-    <t>J P Lantieri - Chardonnay'</t>
-  </si>
-  <si>
-    <t>J P Lantieri - Chardonnay (Lektrix Remix)'</t>
-  </si>
-  <si>
-    <t>J P Lantieri - Chardonnay (Mystik Vibe Remix)'</t>
-  </si>
-  <si>
-    <t>J P Lantieri - Chardonnay (Ornery Remix)'</t>
-  </si>
-  <si>
-    <t>J P Lantieri - Riesling'</t>
-  </si>
-  <si>
-    <t>Juanita Dientes Verdes - Dios Salve El R&amp;R - Cielo Sin Santos'</t>
-  </si>
-  <si>
-    <t>Juanita Dientes Verdes - Donde No Llega La Luz'</t>
-  </si>
-  <si>
-    <t>Juanita Dientes Verdes - Placido Domingo'</t>
-  </si>
-  <si>
-    <t>Jules King - Never Stop'</t>
-  </si>
-  <si>
-    <t>Justin Myles - Alone With You'</t>
-  </si>
-  <si>
-    <t>Kangoro - Animal'</t>
-  </si>
-  <si>
-    <t>Kangoro - Bitch Is Paranoid'</t>
-  </si>
-  <si>
-    <t>Kangoro - Clinic A'</t>
-  </si>
-  <si>
-    <t>Kangoro - Easy Tiger'</t>
-  </si>
-  <si>
-    <t>Kangoro - King Rascal'</t>
-  </si>
-  <si>
-    <t>Kangoro - Rockshow'</t>
-  </si>
-  <si>
-    <t>Karl Hungus - Got Your Love'</t>
-  </si>
-  <si>
-    <t>Kat Wright - By My Side'</t>
-  </si>
-  <si>
-    <t>Kat Wright - Contact'</t>
-  </si>
-  <si>
-    <t>Keystone Angel - Afterglow'</t>
-  </si>
-  <si>
-    <t>Killa-L - Window'</t>
-  </si>
-  <si>
-    <t>Kung Fu - Daddy D'</t>
-  </si>
-  <si>
-    <t>Kung Fu - Joy Ride'</t>
-  </si>
-  <si>
-    <t>Last Legacy - Who's Who In Hell</t>
-  </si>
-  <si>
-    <t>Lead Inc - The Dice'</t>
-  </si>
-  <si>
-    <t>Lead Inc - The Inner Circle'</t>
-  </si>
-  <si>
-    <t>Lead Inc - Way Of Life'</t>
-  </si>
-  <si>
-    <t>Leftover Salmon - River's Risin</t>
-  </si>
-  <si>
-    <t>Lindy Hip Big Band - Makin' Whoopee</t>
-  </si>
-  <si>
-    <t>Lindy Hip Big Band - The Opener'</t>
-  </si>
-  <si>
-    <t>Lingua Funqa - Just One Minute'</t>
-  </si>
-  <si>
-    <t>Lorenzo Price - Changing Things (Dorian'\''s Song)'</t>
-  </si>
-  <si>
-    <t>Ludø - Sandstorm'</t>
-  </si>
-  <si>
-    <t>Mady &amp; Seus Namorados - Pirarucumbia'</t>
-  </si>
-  <si>
-    <t>Magician's Nephew - Get Out Of Bed</t>
-  </si>
-  <si>
-    <t>Magician's Nephew - Symphony Of Silence</t>
-  </si>
-  <si>
-    <t>Major Lazer - Light It Up'</t>
-  </si>
-  <si>
-    <t>Major Lazer - Light It Up (Remix)'</t>
-  </si>
-  <si>
-    <t>Malenky Slovos - Matterplay'</t>
-  </si>
-  <si>
-    <t>Man About A Dog - Maggie May'</t>
-  </si>
-  <si>
-    <t>Marc Ellason - Treadmills'</t>
-  </si>
-  <si>
-    <t>Marc Ellason - Upside Down'</t>
-  </si>
-  <si>
-    <t>Marcus Boeltz - Shut Up And Play'</t>
-  </si>
-  <si>
-    <t>Maurizio Pagnutti Sextet - All The Gin Is Gone'</t>
-  </si>
-  <si>
-    <t>Maurizio Pagnutti Sextet - Bess'</t>
-  </si>
-  <si>
-    <t>McLovins - Buildin' It Up</t>
-  </si>
-  <si>
-    <t>MekaPhil - Alive (Yet Free)'</t>
-  </si>
-  <si>
-    <t>MekaPhil - Timeless (Part 2)'</t>
-  </si>
-  <si>
-    <t>Mike Skalandunas - Sun Drenched'</t>
-  </si>
-  <si>
-    <t>Mirroman - Fever'</t>
-  </si>
-  <si>
-    <t>Mistrusted - Carnival Charade'</t>
-  </si>
-  <si>
-    <t>Mistrusted - Cascade'</t>
-  </si>
-  <si>
-    <t>Mistrusted - Polemic'</t>
-  </si>
-  <si>
-    <t>Mistrusted - Trapped'</t>
-  </si>
-  <si>
-    <t>Monsieur Periné - Encanto Tropical'</t>
-  </si>
-  <si>
-    <t>Mustafa Albazy - Shela Ya Marhaba'</t>
-  </si>
-  <si>
-    <t>Mustafa Albazy - Tgheer'</t>
-  </si>
-  <si>
-    <t>Nahum Strickland - Steampunk Siege'</t>
-  </si>
-  <si>
-    <t>Neon Hornet - Take It Off'</t>
-  </si>
-  <si>
-    <t>Nervbloc - Slapback'</t>
-  </si>
-  <si>
-    <t>Neuromantic - The Calm'</t>
-  </si>
-  <si>
-    <t>Nicki Bluhm &amp; The Gramblers - Go Go Go'</t>
-  </si>
-  <si>
-    <t>Nikola Stajic feat. Vlasis Kostas - Nalim'</t>
-  </si>
-  <si>
-    <t>Nominal6 - Escape Of The Hopping Rhinos'</t>
-  </si>
-  <si>
-    <t>North To Alaska - All The Same'</t>
-  </si>
-  <si>
-    <t>Nova-One Studio - Four Graham'</t>
-  </si>
-  <si>
-    <t>Nzca Lines - Pure Luxury'</t>
-  </si>
-  <si>
-    <t>OctopusOnFire - Russian Bot'</t>
+    <t>oxeye - Sorry'</t>
+  </si>
+  <si>
+    <t>thelvnguage - Kings And Queens'</t>
+  </si>
+  <si>
+    <t>thelvnguage - Raspberry Jam'</t>
   </si>
   <si>
     <t>Öjebokören - That's Entertainment</t>
-  </si>
-  <si>
-    <t>One Time Weekend - One Time Weekend'</t>
-  </si>
-  <si>
-    <t>oxeye - Sorry'</t>
-  </si>
-  <si>
-    <t>Pablo Martin - Progresivo 1 El Vuelo'</t>
-  </si>
-  <si>
-    <t>Painted Skies - Piers'</t>
-  </si>
-  <si>
-    <t>Pandemia eRock - Macaco Regresso'</t>
-  </si>
-  <si>
-    <t>Pawel Maciwoda - 1 Of The First'</t>
-  </si>
-  <si>
-    <t>Perdidos Na Zona Sul - Meu Bem'</t>
-  </si>
-  <si>
-    <t>Perpetual Escape - Duty &amp; Memories'</t>
-  </si>
-  <si>
-    <t>Perpetual Escape - Into My Dreams'</t>
-  </si>
-  <si>
-    <t>Perpetual Escape - Roots Of Mankind'</t>
-  </si>
-  <si>
-    <t>Perpetual Escape - Sin Six'</t>
-  </si>
-  <si>
-    <t>Perpetual Escape - Stop And Rise'</t>
-  </si>
-  <si>
-    <t>Peter White - Crazy Girl'</t>
-  </si>
-  <si>
-    <t>Peter White - The Blues Is A Lady'</t>
-  </si>
-  <si>
-    <t>Phre The Eon - Everybody's Falling Apart</t>
-  </si>
-  <si>
-    <t>Plan Caliente - El Marinero'</t>
-  </si>
-  <si>
-    <t>Plywood Cowboy - Last Night's Gig</t>
-  </si>
-  <si>
-    <t>Pretty Saro - Carolina In The Pines'</t>
-  </si>
-  <si>
-    <t>Primakova - The Glass'</t>
-  </si>
-  <si>
-    <t>Purple Hat Mob - Access Denied'</t>
-  </si>
-  <si>
-    <t>Qupe - Ayni Nehirde'</t>
-  </si>
-  <si>
-    <t>Random Somebody - Crazy For Me'</t>
-  </si>
-  <si>
-    <t>Rattletree - Just Let It Go'</t>
-  </si>
-  <si>
-    <t>Rebuild The Evil - Burial Of Silence'</t>
-  </si>
-  <si>
-    <t>Remember December - C U Next Time'</t>
-  </si>
-  <si>
-    <t>Remember Jones - Don't Put Me On Hold</t>
-  </si>
-  <si>
-    <t>Ricardo Santiago - Dream No. 12'</t>
-  </si>
-  <si>
-    <t>Ricardo Santiago - Let The Music Fade Away'</t>
-  </si>
-  <si>
-    <t>Ricky Legend - Comet'</t>
-  </si>
-  <si>
-    <t>Ricky Legend - Going To The Moon'</t>
-  </si>
-  <si>
-    <t>Ripe - 4 Out Of 10'</t>
-  </si>
-  <si>
-    <t>Ripe - Little Lighter'</t>
-  </si>
-  <si>
-    <t>Robert Hammon - The Elephant'</t>
-  </si>
-  <si>
-    <t>Rod Alexander - Pachebel's Canon</t>
-  </si>
-  <si>
-    <t>Rod Alexander - Tears In The Rain'</t>
-  </si>
-  <si>
-    <t>Ronnie Jones - Why Don't You Stay</t>
-  </si>
-  <si>
-    <t>Rovers Ahead - It's In These Times</t>
-  </si>
-  <si>
-    <t>Rubblebucket - Carousel Ride'</t>
-  </si>
-  <si>
-    <t>Ruby Roads - Rat Race'</t>
-  </si>
-  <si>
-    <t>Ryan Cali - Back Down'</t>
-  </si>
-  <si>
-    <t>Ryan Cali - Crazy'</t>
-  </si>
-  <si>
-    <t>Santi Vega - Ying Yang'</t>
-  </si>
-  <si>
-    <t>Scott Elliott - Aeternum Vale'</t>
-  </si>
-  <si>
-    <t>Secretariat - Borderline'</t>
-  </si>
-  <si>
-    <t>Secretariat - Homebound'</t>
-  </si>
-  <si>
-    <t>Secretariat - Over The Top'</t>
-  </si>
-  <si>
-    <t>Selwyn Jazz - Bill Ashton's Much Too Much</t>
-  </si>
-  <si>
-    <t>Silence Is Near - The Forthcoming Turn'</t>
-  </si>
-  <si>
-    <t>Silona - Learning How To Fly'</t>
-  </si>
-  <si>
-    <t>Simon Lyn - Copper'</t>
-  </si>
-  <si>
-    <t>Six Fox Whiskey - Hope And The Sea'</t>
-  </si>
-  <si>
-    <t>Skelpolu - Anomalous Weeping'</t>
-  </si>
-  <si>
-    <t>Skelpolu - Cold Strive'</t>
-  </si>
-  <si>
-    <t>Skelpolu - Entwine'</t>
-  </si>
-  <si>
-    <t>Skelpolu - Human Mistakes'</t>
-  </si>
-  <si>
-    <t>Skelpolu - Long Road'</t>
-  </si>
-  <si>
-    <t>Skelpolu - Resurrection Resurrected'</t>
-  </si>
-  <si>
-    <t>Skelpolu - Together Alone'</t>
-  </si>
-  <si>
-    <t>Skyeez &amp; The Whiteflies - Banana Split'</t>
-  </si>
-  <si>
-    <t>Skyeez &amp; The Whiteflies - Jump Across'</t>
-  </si>
-  <si>
-    <t>Sonnet &amp; Alcohol - Back To The Nineties'</t>
-  </si>
-  <si>
-    <t>Sound On Sound Demo - Mystery'</t>
-  </si>
-  <si>
-    <t>Spektakulatius - Christmas Blues'</t>
-  </si>
-  <si>
-    <t>Spektakulatius - Is You Is Or Is You Ain't</t>
-  </si>
-  <si>
-    <t>Spektakulatius - Jeden Winter'</t>
-  </si>
-  <si>
-    <t>Spektakulatius - Our Love Is Here To Stay'</t>
-  </si>
-  <si>
-    <t>Spektakulatius - Wayfaring Stranger'</t>
-  </si>
-  <si>
-    <t>Spektakulatius - What Child Is This'</t>
-  </si>
-  <si>
-    <t>Spike Mullings - Mike's Sulking</t>
-  </si>
-  <si>
-    <t>Starnes &amp; Shah - Prodigal'</t>
-  </si>
-  <si>
-    <t>Stefano Petrocca - Foundation'</t>
-  </si>
-  <si>
-    <t>Storm Of Particles - Of Ice And Hopeless Fate'</t>
-  </si>
-  <si>
-    <t>Street Noise - I'd Rather Be Drinkin</t>
-  </si>
-  <si>
-    <t>Street Noise - Revelations'</t>
-  </si>
-  <si>
-    <t>Street Noise - You Are The One'</t>
-  </si>
-  <si>
-    <t>Strobe - Gone'</t>
-  </si>
-  <si>
-    <t>Strobe - Maya'</t>
-  </si>
-  <si>
-    <t>Strobe - Nostalgic'</t>
-  </si>
-  <si>
-    <t>St Vitus - Word Gets Around'</t>
-  </si>
-  <si>
-    <t>Swing Bazar - Fleche D'Or</t>
-  </si>
-  <si>
-    <t>Swinging Steaks - Lost My Way'</t>
-  </si>
-  <si>
-    <t>Szlachetka - Heart Of My Home Town'</t>
-  </si>
-  <si>
-    <t>Szymon Skiba - Death Metal Sucks'</t>
-  </si>
-  <si>
-    <t>Szymon Skiba - Let's Dance</t>
-  </si>
-  <si>
-    <t>Szymon Skiba - Some Trashy Thrash I Guess'</t>
-  </si>
-  <si>
-    <t>Tall Heights - Spirit Cold'</t>
-  </si>
-  <si>
-    <t>Ted Behrman - Convertible'</t>
-  </si>
-  <si>
-    <t>The Abletones Big Band - Corine Corine'</t>
-  </si>
-  <si>
-    <t>The Abletones Big Band - Song Of India'</t>
-  </si>
-  <si>
-    <t>The Apprehended - Still Flyin'</t>
-  </si>
-  <si>
-    <t>The Balazs Daniel Boogie Woogie Trio - Own Way To Boogie'</t>
-  </si>
-  <si>
-    <t>The Black Crown - Cage'</t>
-  </si>
-  <si>
-    <t>The Black Crown - Flames'</t>
-  </si>
-  <si>
-    <t>The Brew - What I Want'</t>
-  </si>
-  <si>
-    <t>The Butterfly Effect - An Ultra Violet Apology'</t>
-  </si>
-  <si>
-    <t>The Butterfly Effect - Fairytale'</t>
-  </si>
-  <si>
-    <t>The Butterfly Effect - Preach Right Here'</t>
-  </si>
-  <si>
-    <t>The Complainiacs - Etc'</t>
-  </si>
-  <si>
-    <t>The Funny Valentines - Sleigh Ride'</t>
-  </si>
-  <si>
-    <t>The Great Enough - Die Young'</t>
-  </si>
-  <si>
-    <t>The Left Backs - The Feeling'</t>
-  </si>
-  <si>
-    <t>The Lonely Wild - Scar'</t>
-  </si>
-  <si>
-    <t>The Long Wait - Back Home To Blue'</t>
-  </si>
-  <si>
-    <t>The Long Wait - Dark Horses'</t>
-  </si>
-  <si>
-    <t>The Long Wait - Drag'</t>
-  </si>
-  <si>
-    <t>The Long Wait - Lookout Mountain'</t>
-  </si>
-  <si>
-    <t>The Long Wait - Santa'</t>
-  </si>
-  <si>
-    <t>thelvnguage - Kings And Queens'</t>
-  </si>
-  <si>
-    <t>thelvnguage - Raspberry Jam'</t>
-  </si>
-  <si>
-    <t>The Maybe Next Years - One Flip Flop'</t>
-  </si>
-  <si>
-    <t>The Mountaineering Club Orchestra - Cruising The Ice'</t>
-  </si>
-  <si>
-    <t>The Penniless Wild - Seat Back'</t>
-  </si>
-  <si>
-    <t>The Timezone - GOTGF'</t>
-  </si>
-  <si>
-    <t>The Travelling Band - Passing Ships'</t>
-  </si>
-  <si>
-    <t>The Travelling Band - Quicksand'</t>
-  </si>
-  <si>
-    <t>The Western Den - Like You Do'</t>
-  </si>
-  <si>
-    <t>The Wrong'uns - Rothko</t>
-  </si>
-  <si>
-    <t>Tholas P. - Such Fine People'</t>
-  </si>
-  <si>
-    <t>Timo And The Timezone - Just Don't Talk</t>
-  </si>
-  <si>
-    <t>Timo Carlier - The Road Ahead'</t>
-  </si>
-  <si>
-    <t>Tim Taler - Stalker'</t>
-  </si>
-  <si>
-    <t>Titanium - Haunted Age'</t>
-  </si>
-  <si>
-    <t>Tommy Marcinek - Happy Blues'</t>
-  </si>
-  <si>
-    <t>Tommy Marcinek - My Childhood Sweetheart'</t>
-  </si>
-  <si>
-    <t>Trafficker - My Father Never Loved Me'</t>
-  </si>
-  <si>
-    <t>Trick Bird - Window'</t>
-  </si>
-  <si>
-    <t>Turbosauro - Magilla'</t>
-  </si>
-  <si>
-    <t>Turkuaz - Lookin' Tough Feelin' Good</t>
-  </si>
-  <si>
-    <t>Turkuaz - Tip Toe Through The Crypto'</t>
-  </si>
-  <si>
-    <t>Turn Back To Spring - Another Day Calling'</t>
-  </si>
-  <si>
-    <t>Tytillidie x Xollllinnnn - Bankroll'</t>
-  </si>
-  <si>
-    <t>Uncle Dad - Who I Am'</t>
-  </si>
-  <si>
-    <t>Unicorn Rodeo - Maybe'</t>
-  </si>
-  <si>
-    <t>U T Gandhi - Arto'</t>
-  </si>
-  <si>
-    <t>V.M.GY - Aureus Necrosis'</t>
-  </si>
-  <si>
-    <t>V.M.GY - Bloodshed'</t>
-  </si>
-  <si>
-    <t>V.M.GY - Equilibrium'</t>
-  </si>
-  <si>
-    <t>V.M.GY - Fountain Of Eternal Life'</t>
-  </si>
-  <si>
-    <t>V.M.GY - Omen'</t>
-  </si>
-  <si>
-    <t>V.M.GY - Purgatory'</t>
-  </si>
-  <si>
-    <t>V.M.GY - The Crown'</t>
-  </si>
-  <si>
-    <t>Voelund - Comfort Lives In Belief'</t>
-  </si>
-  <si>
-    <t>Wall Of Death - Femme'</t>
-  </si>
-  <si>
-    <t>Wesley Morgan - Backroom In Tulsa'</t>
-  </si>
-  <si>
-    <t>Wesley Morgan - Flesh And Bone'</t>
-  </si>
-  <si>
-    <t>Wess Meets West - 64 Bristol'</t>
-  </si>
-  <si>
-    <t>Wess Meets West - Direct Experience'</t>
-  </si>
-  <si>
-    <t>West End Blend - Kane Guru'</t>
-  </si>
-  <si>
-    <t>West End Blend - Must Be Voodoo'</t>
-  </si>
-  <si>
-    <t>Whitten And. Williams - How To Make A Mirror'</t>
-  </si>
-  <si>
-    <t>Wide Waters - Into The Forest'</t>
-  </si>
-  <si>
-    <t>Will Evans - Me And My Crew'</t>
-  </si>
-  <si>
-    <t>Will Knox - Cog In The Machine'</t>
-  </si>
-  <si>
-    <t>Wires - Red On You'</t>
-  </si>
-  <si>
-    <t>Wolf'\''s Head &amp; Vixen Morris Band - Lament'</t>
-  </si>
-  <si>
-    <t>Woodfire - Animals'</t>
-  </si>
-  <si>
-    <t>Woodfire - Get Fooled'</t>
-  </si>
-  <si>
-    <t>Woodfire - Haunted House'</t>
-  </si>
-  <si>
-    <t>Woodfire - Outer'</t>
-  </si>
-  <si>
-    <t>Woodfire - Wealthy In Time'</t>
-  </si>
-  <si>
-    <t>Woven Hollow - Tell Me Nice'</t>
-  </si>
-  <si>
-    <t>Zane Carney &amp; Friends - Talk To Me Baby'</t>
-  </si>
-  <si>
-    <t>Zwiepack - Air'</t>
   </si>
 </sst>
 </file>
@@ -1838,7 +1838,7 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1860,12 +1860,12 @@
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1882,7 +1882,7 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2041,7 +2041,7 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2052,7 +2052,7 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2085,7 +2085,7 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2096,7 +2096,7 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2143,7 +2143,7 @@
       <c r="A32" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -2279,7 +2279,7 @@
       <c r="A49" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="3" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="A50" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="5" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2305,12 +2305,12 @@
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2455,7 +2455,7 @@
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="5" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2475,7 +2475,7 @@
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="3" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="5" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2540,17 +2540,17 @@
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="5" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2580,7 +2580,7 @@
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="5" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="3" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="3" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2905,12 +2905,12 @@
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="5" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="C174" s="5" t="s">
+      <c r="C174" s="3" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="5" t="s">
         <v>288</v>
       </c>
     </row>
@@ -3095,17 +3095,17 @@
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="5" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="5" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="C213" s="5" t="s">
+      <c r="C213" s="3" t="s">
         <v>294</v>
       </c>
     </row>
@@ -3125,22 +3125,22 @@
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="C217" s="5" t="s">
+      <c r="C217" s="3" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="C218" s="5" t="s">
+      <c r="C218" s="3" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="C219" s="3" t="s">
+      <c r="C219" s="5" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="C220" s="3" t="s">
+      <c r="C220" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -3160,12 +3160,12 @@
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="C224" s="5" t="s">
+      <c r="C224" s="3" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="C225" s="5" t="s">
+      <c r="C225" s="3" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3185,7 +3185,7 @@
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="C229" s="3" t="s">
+      <c r="C229" s="5" t="s">
         <v>310</v>
       </c>
     </row>
@@ -3215,7 +3215,7 @@
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="C235" s="5" t="s">
+      <c r="C235" s="3" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="C241" s="3" t="s">
+      <c r="C241" s="5" t="s">
         <v>322</v>
       </c>
     </row>
@@ -3330,7 +3330,7 @@
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="C258" s="5" t="s">
+      <c r="C258" s="3" t="s">
         <v>339</v>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="C266" s="3" t="s">
+      <c r="C266" s="5" t="s">
         <v>347</v>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="C268" s="3" t="s">
+      <c r="C268" s="5" t="s">
         <v>349</v>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="C273" s="5" t="s">
+      <c r="C273" s="3" t="s">
         <v>354</v>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
       </c>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="C275" s="5" t="s">
+      <c r="C275" s="3" t="s">
         <v>356</v>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="C277" s="3" t="s">
+      <c r="C277" s="5" t="s">
         <v>358</v>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="C284" s="5" t="s">
+      <c r="C284" s="3" t="s">
         <v>365</v>
       </c>
     </row>
@@ -3470,12 +3470,12 @@
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="C286" s="3" t="s">
+      <c r="C286" s="5" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="C287" s="3" t="s">
+      <c r="C287" s="5" t="s">
         <v>368</v>
       </c>
     </row>
@@ -3500,7 +3500,7 @@
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="C292" s="5" t="s">
+      <c r="C292" s="3" t="s">
         <v>373</v>
       </c>
     </row>
@@ -3510,7 +3510,7 @@
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="C294" s="5" t="s">
+      <c r="C294" s="3" t="s">
         <v>375</v>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="C305" s="5" t="s">
+      <c r="C305" s="3" t="s">
         <v>386</v>
       </c>
     </row>
@@ -3610,7 +3610,7 @@
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="C314" s="3" t="s">
+      <c r="C314" s="5" t="s">
         <v>395</v>
       </c>
     </row>
@@ -3635,7 +3635,7 @@
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="C319" s="3" t="s">
+      <c r="C319" s="5" t="s">
         <v>400</v>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="C322" s="5" t="s">
+      <c r="C322" s="3" t="s">
         <v>403</v>
       </c>
     </row>
@@ -3660,7 +3660,7 @@
       </c>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="C324" s="3" t="s">
+      <c r="C324" s="5" t="s">
         <v>405</v>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
       </c>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="C327" s="5" t="s">
+      <c r="C327" s="3" t="s">
         <v>408</v>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       </c>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="C331" s="5" t="s">
+      <c r="C331" s="3" t="s">
         <v>412</v>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="C333" s="3" t="s">
+      <c r="C333" s="5" t="s">
         <v>414</v>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
       </c>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="C338" s="5" t="s">
+      <c r="C338" s="3" t="s">
         <v>419</v>
       </c>
     </row>
@@ -3750,7 +3750,7 @@
       </c>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="C342" s="5" t="s">
+      <c r="C342" s="3" t="s">
         <v>423</v>
       </c>
     </row>
@@ -3855,7 +3855,7 @@
       </c>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="C363" s="3" t="s">
+      <c r="C363" s="5" t="s">
         <v>444</v>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
       </c>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="C366" s="3" t="s">
+      <c r="C366" s="5" t="s">
         <v>447</v>
       </c>
     </row>
@@ -3925,7 +3925,7 @@
       </c>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="C377" s="5" t="s">
+      <c r="C377" s="3" t="s">
         <v>458</v>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="C381" s="3" t="s">
+      <c r="C381" s="5" t="s">
         <v>462</v>
       </c>
     </row>
@@ -3970,7 +3970,7 @@
       </c>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="C386" s="5" t="s">
+      <c r="C386" s="3" t="s">
         <v>467</v>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
       </c>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="C421" s="3" t="s">
+      <c r="C421" s="5" t="s">
         <v>502</v>
       </c>
     </row>
